--- a/tmp/6年分会計比較.xlsx
+++ b/tmp/6年分会計比較.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7bbb25f73a4fe1a4/ドキュメント/町内会/tmp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\github\neighborhood\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{9AE19F8C-7273-45F3-9A50-F907EC0EF3E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D69CA219-638E-4D11-935C-29BB33BA08BE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{759CFEC2-325D-46D6-AFAB-3EF543798644}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1248" yWindow="1548" windowWidth="17280" windowHeight="8976" xr2:uid="{91722BC7-0123-42BB-87D5-AEEE062398CE}"/>
+    <workbookView xWindow="12" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{91722BC7-0123-42BB-87D5-AEEE062398CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
   <si>
     <t>平成27年</t>
     <rPh sb="0" eb="2">
@@ -318,6 +320,201 @@
     </rPh>
     <rPh sb="22" eb="23">
       <t>マン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自治会交付金</t>
+    <rPh sb="0" eb="3">
+      <t>ジチカイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>コウフキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敬老会補助金</t>
+    <rPh sb="0" eb="3">
+      <t>ケイロウカイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ホジョキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>有価物回収報奨金</t>
+    <rPh sb="0" eb="3">
+      <t>ユウカブツ</t>
+    </rPh>
+    <rPh sb="3" eb="8">
+      <t>カイシュウホウショウキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>緑の保全助成金</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホゼン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ジョセイキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>防犯灯維持管理補助金</t>
+    <rPh sb="0" eb="3">
+      <t>ボウハントウ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>イジカンリ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ホジョキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日赤募金手数料</t>
+    <rPh sb="0" eb="2">
+      <t>ニッセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ボキン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>テスウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>報歳　消火器詰め替え</t>
+    <rPh sb="0" eb="2">
+      <t>ホウサイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ショウカキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平成26年</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平成31年</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平成24年</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平成25年</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平成23年</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平成20年</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平成21年</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平成22年</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平成18年</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平成19年</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>会館維持補助金</t>
+    <rPh sb="0" eb="4">
+      <t>カイカンイジ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ホジョキン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -326,7 +523,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0;&quot;△ &quot;#,##0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,6 +550,12 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -359,12 +565,42 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -376,14 +612,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -481,7 +732,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$12:$G$12</c:f>
+              <c:f>Sheet1!$K$12:$P$12</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -507,7 +758,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$G$13</c:f>
+              <c:f>Sheet1!$K$13:$P$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -564,7 +815,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$12:$G$12</c:f>
+              <c:f>Sheet1!$K$12:$P$12</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -590,7 +841,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$G$14</c:f>
+              <c:f>Sheet1!$K$14:$P$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -647,7 +898,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$12:$G$12</c:f>
+              <c:f>Sheet1!$K$12:$P$12</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -673,7 +924,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$15:$G$15</c:f>
+              <c:f>Sheet1!$K$15:$P$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -730,7 +981,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$12:$G$12</c:f>
+              <c:f>Sheet1!$K$12:$P$12</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -756,7 +1007,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$16:$G$16</c:f>
+              <c:f>Sheet1!$K$16:$P$16</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -813,7 +1064,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$12:$G$12</c:f>
+              <c:f>Sheet1!$K$12:$P$12</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -839,7 +1090,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$17:$G$17</c:f>
+              <c:f>Sheet1!$K$17:$P$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -896,7 +1147,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$12:$G$12</c:f>
+              <c:f>Sheet1!$K$12:$P$12</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -922,7 +1173,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$18:$G$18</c:f>
+              <c:f>Sheet1!$K$18:$P$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -981,7 +1232,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$12:$G$12</c:f>
+              <c:f>Sheet1!$K$12:$P$12</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1007,7 +1258,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$19:$G$19</c:f>
+              <c:f>Sheet1!$K$19:$P$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1066,7 +1317,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$12:$G$12</c:f>
+              <c:f>Sheet1!$K$12:$P$12</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1092,7 +1343,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$20:$G$20</c:f>
+              <c:f>Sheet1!$K$20:$P$20</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1151,7 +1402,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$12:$G$12</c:f>
+              <c:f>Sheet1!$K$12:$P$12</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1177,7 +1428,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$21:$G$21</c:f>
+              <c:f>Sheet1!$K$21:$P$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1236,7 +1487,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$12:$G$12</c:f>
+              <c:f>Sheet1!$K$12:$P$12</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1262,7 +1513,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$22:$G$22</c:f>
+              <c:f>Sheet1!$K$22:$P$22</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1321,7 +1572,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$12:$G$12</c:f>
+              <c:f>Sheet1!$K$12:$P$12</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1347,7 +1598,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$G$23</c:f>
+              <c:f>Sheet1!$K$23:$P$23</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1406,7 +1657,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$12:$G$12</c:f>
+              <c:f>Sheet1!$K$12:$P$12</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1432,7 +1683,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$24:$G$24</c:f>
+              <c:f>Sheet1!$K$24:$P$24</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1492,7 +1743,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$12:$G$12</c:f>
+              <c:f>Sheet1!$K$12:$P$12</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1518,7 +1769,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$25:$G$25</c:f>
+              <c:f>Sheet1!$K$25:$P$25</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1578,7 +1829,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$12:$G$12</c:f>
+              <c:f>Sheet1!$K$12:$P$12</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1604,7 +1855,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$26:$G$26</c:f>
+              <c:f>Sheet1!$K$26:$P$26</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1652,7 +1903,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$12:$G$12</c:f>
+              <c:f>Sheet1!$K$12:$P$12</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1678,7 +1929,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$27:$G$27</c:f>
+              <c:f>Sheet1!$K$27:$P$27</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1982,7 +2233,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$K$1:$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2008,7 +2259,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$G$2</c:f>
+              <c:f>Sheet1!$K$2:$P$2</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2065,7 +2316,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$K$1:$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2091,7 +2342,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$G$3</c:f>
+              <c:f>Sheet1!$K$3:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2148,7 +2399,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$K$1:$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2174,7 +2425,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$G$4</c:f>
+              <c:f>Sheet1!$K$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2231,7 +2482,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$K$1:$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2257,7 +2508,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$G$5</c:f>
+              <c:f>Sheet1!$K$5:$P$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2314,7 +2565,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$K$1:$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2340,7 +2591,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$G$6</c:f>
+              <c:f>Sheet1!$K$6:$P$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2397,7 +2648,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$K$1:$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2423,7 +2674,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$G$7</c:f>
+              <c:f>Sheet1!$K$7:$P$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2642,6 +2893,1303 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>前年度繰越金</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>平成18年</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>平成19年</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>平成20年</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>平成21年</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>平成22年</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>平成23年</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>平成24年</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>平成25年</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>平成26年</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>平成27年</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>平成28年</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>平成29年</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>平成30年</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>令和元年</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>令和2年</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$P$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3700842</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3917057</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4202612</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4889601</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4639367</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4360234</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4060058</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3165656</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3168532</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2923424</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3254925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C09C-4102-8D88-E3AEEC55458D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>町会費</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>平成18年</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>平成19年</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>平成20年</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>平成21年</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>平成22年</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>平成23年</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>平成24年</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>平成25年</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>平成26年</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>平成27年</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>平成28年</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>平成29年</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>平成30年</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>令和元年</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>令和2年</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1358600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1362400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1492000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1497200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1480400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1460000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1456400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1430800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1420800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1402800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1396800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C09C-4102-8D88-E3AEEC55458D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>補助金</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>平成18年</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>平成19年</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>平成20年</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>平成21年</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>平成22年</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>平成23年</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>平成24年</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>平成25年</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>平成26年</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>平成27年</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>平成28年</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>平成29年</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>平成30年</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>令和元年</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>令和2年</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1114061</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1190934</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1253187</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1408289</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1920933</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1805546</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2112057</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1972112</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1870096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2074970</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1408199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C09C-4102-8D88-E3AEEC55458D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>寄付金</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>平成18年</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>平成19年</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>平成20年</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>平成21年</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>平成22年</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>平成23年</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>平成24年</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>平成25年</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>平成26年</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>平成27年</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>平成28年</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>平成29年</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>平成30年</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>令和元年</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>令和2年</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>467000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>383000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>427000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>432000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>348000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>408000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>383000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>342000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>293000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>321000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C09C-4102-8D88-E3AEEC55458D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>雑収入</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>平成18年</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>平成19年</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>平成20年</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>平成21年</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>平成22年</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>平成23年</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>平成24年</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>平成25年</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>平成26年</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>平成27年</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>平成28年</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>平成29年</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>平成30年</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>令和元年</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>令和2年</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>162899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>196354</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>174367</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>157878</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>116190</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>114168</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>122193</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>122974</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>136089</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>343297</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57209</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C09C-4102-8D88-E3AEEC55458D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>手許現金</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>平成18年</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>平成19年</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>平成20年</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>平成21年</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>平成22年</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>平成23年</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>平成24年</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>平成25年</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>平成26年</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>平成27年</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>平成28年</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>平成29年</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>平成30年</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>令和元年</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>令和2年</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="13">
+                  <c:v>351499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C09C-4102-8D88-E3AEEC55458D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="757613840"/>
+        <c:axId val="757622160"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>小計</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>平成18年</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>平成19年</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>平成20年</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>平成21年</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>平成22年</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>平成23年</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>平成24年</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>平成25年</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>平成26年</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>平成27年</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>平成28年</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>平成29年</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>平成30年</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>令和元年</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>令和2年</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6803402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7049745</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7549166</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8384968</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8504890</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8147948</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8133708</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7033542</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6888517</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7416990</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6117133</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C09C-4102-8D88-E3AEEC55458D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="757629232"/>
+        <c:axId val="757625072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="757613840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="757622160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="757622160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="757613840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="757625072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="757629232"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="757629232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="757625072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2722,6 +4270,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3730,20 +5318,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>445770</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>474344</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>478154</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>17746</xdr:rowOff>
+      <xdr:rowOff>21556</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3784,13 +5875,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>404812</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>74295</xdr:rowOff>
@@ -3820,13 +5911,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>339090</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>217170</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>64770</xdr:rowOff>
@@ -3849,6 +5940,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>136070</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>68034</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>472439</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>25307</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E62381-12E1-4216-930A-0FF58A61042C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4154,645 +6281,1657 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A9483D-CB65-47B5-B1B3-0EF3888FC64F}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="11.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B1" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="B1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
+        <v>3700842</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3917057</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4202612</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5">
+        <v>4889601</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5">
+        <v>4639367</v>
+      </c>
+      <c r="K2" s="4">
         <v>4360234</v>
       </c>
-      <c r="C2" s="1">
+      <c r="L2" s="4">
         <v>4060058</v>
       </c>
-      <c r="D2" s="1">
+      <c r="M2" s="4">
         <v>3165656</v>
       </c>
-      <c r="E2" s="1">
+      <c r="N2" s="4">
         <v>3168532</v>
       </c>
-      <c r="F2" s="1">
+      <c r="O2" s="4">
         <v>2923424</v>
       </c>
-      <c r="G2" s="1">
+      <c r="P2" s="4">
         <v>3254925</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
+        <v>1358600</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1362400</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1492000</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5">
+        <v>1497200</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5">
+        <v>1480400</v>
+      </c>
+      <c r="K3" s="4">
         <v>1460000</v>
       </c>
-      <c r="C3" s="1">
+      <c r="L3" s="4">
         <v>1456400</v>
       </c>
-      <c r="D3" s="1">
+      <c r="M3" s="4">
         <v>1430800</v>
       </c>
-      <c r="E3" s="1">
+      <c r="N3" s="4">
         <v>1420800</v>
       </c>
-      <c r="F3" s="1">
+      <c r="O3" s="4">
         <v>1402800</v>
       </c>
-      <c r="G3" s="1">
+      <c r="P3" s="4">
         <v>1396800</v>
       </c>
-      <c r="J3">
-        <f>B3/4800</f>
+      <c r="S3">
+        <f t="shared" ref="S3:X3" si="0">K3/4800</f>
         <v>304.16666666666669</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:O3" si="0">C3/4800</f>
+      <c r="T3">
+        <f t="shared" si="0"/>
         <v>303.41666666666669</v>
       </c>
-      <c r="L3">
+      <c r="U3">
         <f t="shared" si="0"/>
         <v>298.08333333333331</v>
       </c>
-      <c r="M3">
+      <c r="V3">
         <f t="shared" si="0"/>
         <v>296</v>
       </c>
-      <c r="N3">
+      <c r="W3">
         <f t="shared" si="0"/>
         <v>292.25</v>
       </c>
-      <c r="O3">
+      <c r="X3">
         <f t="shared" si="0"/>
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
+        <v>1114061</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1190934</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1253187</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5">
+        <v>1408289</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5">
+        <v>1920933</v>
+      </c>
+      <c r="K4" s="4">
         <v>1805546</v>
       </c>
-      <c r="C4" s="1">
+      <c r="L4" s="4">
         <v>2112057</v>
       </c>
-      <c r="D4" s="1">
+      <c r="M4" s="4">
         <v>1972112</v>
       </c>
-      <c r="E4" s="1">
+      <c r="N4" s="4">
         <v>1870096</v>
       </c>
-      <c r="F4" s="1">
+      <c r="O4" s="4">
         <v>2074970</v>
       </c>
-      <c r="G4" s="1">
+      <c r="P4" s="4">
         <v>1408199</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="5">
+        <v>467000</v>
+      </c>
+      <c r="C5" s="5">
+        <v>383000</v>
+      </c>
+      <c r="D5" s="5">
+        <v>427000</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5">
+        <v>432000</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5">
+        <v>348000</v>
+      </c>
+      <c r="K5" s="4">
         <v>408000</v>
       </c>
-      <c r="C5" s="1">
+      <c r="L5" s="4">
         <v>383000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="M5" s="4">
         <v>342000</v>
       </c>
-      <c r="E5" s="1">
+      <c r="N5" s="4">
         <v>293000</v>
       </c>
-      <c r="F5" s="1">
+      <c r="O5" s="4">
         <v>321000</v>
       </c>
-      <c r="G5" s="1">
+      <c r="P5" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="5">
+        <v>162899</v>
+      </c>
+      <c r="C6" s="5">
+        <v>196354</v>
+      </c>
+      <c r="D6" s="5">
+        <v>174367</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5">
+        <v>157878</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5">
+        <v>116190</v>
+      </c>
+      <c r="K6" s="4">
         <v>114168</v>
       </c>
-      <c r="C6" s="1">
+      <c r="L6" s="4">
         <v>122193</v>
       </c>
-      <c r="D6" s="1">
+      <c r="M6" s="4">
         <v>122974</v>
       </c>
-      <c r="E6" s="1">
+      <c r="N6" s="4">
         <v>136089</v>
       </c>
-      <c r="F6" s="1">
+      <c r="O6" s="4">
         <v>343297</v>
       </c>
-      <c r="G6" s="1">
+      <c r="P6" s="4">
         <v>57209</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4">
         <v>351499</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B8" s="1">
-        <f>SUM(B2:B7)</f>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="4">
+        <f t="shared" ref="B8:P8" si="1">SUM(B2:B7)</f>
+        <v>6803402</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="1"/>
+        <v>7049745</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="1"/>
+        <v>7549166</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
+        <v>8384968</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="1"/>
+        <v>8504890</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
         <v>8147948</v>
       </c>
-      <c r="C8" s="1">
-        <f t="shared" ref="C8:G8" si="1">SUM(C2:C7)</f>
+      <c r="L8" s="4">
+        <f t="shared" si="1"/>
         <v>8133708</v>
       </c>
-      <c r="D8" s="1">
+      <c r="M8" s="4">
         <f t="shared" si="1"/>
         <v>7033542</v>
       </c>
-      <c r="E8" s="1">
+      <c r="N8" s="4">
         <f t="shared" si="1"/>
         <v>6888517</v>
       </c>
-      <c r="F8" s="1">
+      <c r="O8" s="4">
         <f t="shared" si="1"/>
         <v>7416990</v>
       </c>
-      <c r="G8" s="1">
+      <c r="P8" s="4">
         <f t="shared" si="1"/>
         <v>6117133</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="B12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C12" t="s">
+      <c r="L12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
+      <c r="M12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E12" t="s">
+      <c r="N12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F12" t="s">
+      <c r="O12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G12" t="s">
+      <c r="P12" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="5">
+        <v>549250</v>
+      </c>
+      <c r="C13" s="5">
+        <v>819351</v>
+      </c>
+      <c r="D13" s="5">
+        <v>836561</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5">
+        <v>923923</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5">
+        <v>1603503</v>
+      </c>
+      <c r="K13" s="4">
         <v>1247700</v>
       </c>
-      <c r="C13" s="1">
+      <c r="L13" s="4">
         <v>1702950</v>
       </c>
-      <c r="D13" s="1">
+      <c r="M13" s="4">
         <v>1505714</v>
       </c>
-      <c r="E13" s="1">
+      <c r="N13" s="4">
         <v>1324931</v>
       </c>
-      <c r="F13" s="1">
+      <c r="O13" s="4">
         <v>1169250</v>
       </c>
-      <c r="G13" s="1">
+      <c r="P13" s="4">
         <v>844000</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="5">
+        <v>573408</v>
+      </c>
+      <c r="C14" s="5">
+        <v>591486</v>
+      </c>
+      <c r="D14" s="5">
+        <v>566167</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5">
+        <v>418128</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5">
+        <v>421164</v>
+      </c>
+      <c r="K14" s="4">
         <v>434796</v>
       </c>
-      <c r="C14" s="1">
+      <c r="L14" s="4">
         <v>483019</v>
       </c>
-      <c r="D14" s="1">
+      <c r="M14" s="4">
         <v>590652</v>
       </c>
-      <c r="E14" s="1">
+      <c r="N14" s="4">
         <v>574134</v>
       </c>
-      <c r="F14" s="1">
+      <c r="O14" s="4">
         <v>582010</v>
       </c>
-      <c r="G14" s="1">
+      <c r="P14" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="5">
+        <v>472612</v>
+      </c>
+      <c r="C15" s="5">
+        <v>429733</v>
+      </c>
+      <c r="D15" s="5">
+        <v>317338</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5">
+        <v>447572</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5">
+        <v>439192</v>
+      </c>
+      <c r="K15" s="4">
         <v>475414</v>
       </c>
-      <c r="C15" s="1">
+      <c r="L15" s="4">
         <v>515757</v>
       </c>
-      <c r="D15" s="1">
+      <c r="M15" s="4">
         <v>437401</v>
       </c>
-      <c r="E15" s="1">
+      <c r="N15" s="4">
         <v>474925</v>
       </c>
-      <c r="F15" s="1">
+      <c r="O15" s="4">
         <v>461946</v>
       </c>
-      <c r="G15" s="1">
+      <c r="P15" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="5">
+        <v>306886</v>
+      </c>
+      <c r="C16" s="5">
+        <v>248953</v>
+      </c>
+      <c r="D16" s="5">
+        <v>251937</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5">
+        <v>215353</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="6">
+        <v>363437</v>
+      </c>
+      <c r="K16" s="4">
         <v>361655</v>
       </c>
-      <c r="C16" s="1">
+      <c r="L16" s="4">
         <v>307714</v>
       </c>
-      <c r="D16" s="1">
+      <c r="M16" s="4">
         <v>335066</v>
       </c>
-      <c r="E16" s="1">
+      <c r="N16" s="4">
         <v>314131</v>
       </c>
-      <c r="F16" s="1">
+      <c r="O16" s="4">
         <v>292751</v>
       </c>
-      <c r="G16" s="1">
+      <c r="P16" s="4">
         <v>70000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="5">
+        <v>200000</v>
+      </c>
+      <c r="C17" s="5">
+        <v>200000</v>
+      </c>
+      <c r="D17" s="5">
+        <v>200000</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5">
+        <v>200000</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="5">
+        <v>219088</v>
+      </c>
+      <c r="K17" s="4">
         <v>334445</v>
       </c>
-      <c r="C17" s="1">
+      <c r="L17" s="4">
         <v>264194</v>
       </c>
-      <c r="D17" s="1">
+      <c r="M17" s="4">
         <v>243064</v>
       </c>
-      <c r="E17" s="1">
+      <c r="N17" s="4">
         <v>265627</v>
       </c>
-      <c r="F17" s="1">
+      <c r="O17" s="4">
         <v>189572</v>
       </c>
-      <c r="G17" s="1">
+      <c r="P17" s="4">
         <v>123420</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="5">
+        <v>160000</v>
+      </c>
+      <c r="C18" s="5">
+        <v>170000</v>
+      </c>
+      <c r="D18" s="5">
+        <v>140000</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5">
+        <v>143730</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="5">
+        <v>146500</v>
+      </c>
+      <c r="K18" s="4">
         <v>150000</v>
       </c>
-      <c r="C18" s="1">
+      <c r="L18" s="4">
         <v>150000</v>
       </c>
-      <c r="D18" s="1">
+      <c r="M18" s="4">
         <v>150000</v>
       </c>
-      <c r="E18" s="1">
+      <c r="N18" s="4">
         <v>145000</v>
       </c>
-      <c r="F18" s="1">
+      <c r="O18" s="4">
         <v>145000</v>
       </c>
-      <c r="G18" s="1">
+      <c r="P18" s="4">
         <v>145000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="5">
+        <v>141150</v>
+      </c>
+      <c r="C19" s="5">
+        <v>104950</v>
+      </c>
+      <c r="D19" s="5">
+        <v>103850</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5">
+        <v>145000</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="5">
+        <v>150000</v>
+      </c>
+      <c r="K19" s="4">
         <v>156700</v>
       </c>
-      <c r="C19" s="1">
+      <c r="L19" s="4">
         <v>161500</v>
       </c>
-      <c r="D19" s="1">
+      <c r="M19" s="4">
         <v>245200</v>
       </c>
-      <c r="E19" s="1">
+      <c r="N19" s="4">
         <v>238600</v>
       </c>
-      <c r="F19" s="1">
+      <c r="O19" s="4">
         <v>369010</v>
       </c>
-      <c r="G19" s="1">
+      <c r="P19" s="4">
         <v>396310</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="5">
+        <v>121739</v>
+      </c>
+      <c r="C20" s="5">
+        <v>77750</v>
+      </c>
+      <c r="D20" s="5">
+        <v>76750</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5">
+        <v>463980</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="5">
+        <v>104511</v>
+      </c>
+      <c r="K20" s="4">
         <v>112140</v>
       </c>
-      <c r="C20" s="1">
+      <c r="L20" s="4">
         <v>132606</v>
       </c>
-      <c r="D20" s="1">
+      <c r="M20" s="4">
         <v>94660</v>
       </c>
-      <c r="E20" s="1">
+      <c r="N20" s="4">
         <v>77500</v>
       </c>
-      <c r="F20" s="1">
+      <c r="O20" s="4">
         <v>0</v>
       </c>
-      <c r="G20" s="1">
+      <c r="P20" s="4">
         <v>335650</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="5">
+        <v>63840</v>
+      </c>
+      <c r="C21" s="5">
+        <v>54170</v>
+      </c>
+      <c r="D21" s="5">
+        <v>45500</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5">
+        <v>320410</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="5">
+        <v>76250</v>
+      </c>
+      <c r="K21" s="4">
         <v>70000</v>
       </c>
-      <c r="C21" s="1">
+      <c r="L21" s="4">
         <v>70000</v>
       </c>
-      <c r="D21" s="1">
+      <c r="M21" s="4">
         <v>70000</v>
       </c>
-      <c r="E21" s="1">
+      <c r="N21" s="4">
         <v>70000</v>
       </c>
-      <c r="F21" s="1">
+      <c r="O21" s="4">
         <v>70000</v>
       </c>
-      <c r="G21" s="1">
+      <c r="P21" s="4">
         <v>50000</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="5">
+        <v>51847</v>
+      </c>
+      <c r="C22" s="5">
+        <v>10762</v>
+      </c>
+      <c r="D22" s="5">
+        <v>28893</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5">
+        <v>46313</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="5">
+        <v>21742</v>
+      </c>
+      <c r="K22" s="4">
         <v>52335</v>
       </c>
-      <c r="C22" s="1">
+      <c r="L22" s="4">
         <v>119436</v>
       </c>
-      <c r="D22" s="1">
+      <c r="M22" s="4">
         <v>25472</v>
       </c>
-      <c r="E22" s="1">
+      <c r="N22" s="4">
         <v>101317</v>
       </c>
-      <c r="F22" s="1">
+      <c r="O22" s="4">
         <v>91192</v>
       </c>
-      <c r="G22" s="1">
+      <c r="P22" s="4">
         <v>63520</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="5">
+        <v>76017</v>
+      </c>
+      <c r="C23" s="5">
+        <v>17818</v>
+      </c>
+      <c r="D23" s="5">
+        <v>4189</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5">
+        <v>23755</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="5">
+        <v>94269</v>
+      </c>
+      <c r="K23" s="4">
         <v>21397</v>
       </c>
-      <c r="C23" s="1">
+      <c r="L23" s="4">
         <v>46264</v>
       </c>
-      <c r="D23" s="1">
+      <c r="M23" s="4">
         <v>30316</v>
       </c>
-      <c r="E23" s="1">
+      <c r="N23" s="4">
         <v>14092</v>
       </c>
-      <c r="F23" s="1">
+      <c r="O23" s="4">
         <v>28500</v>
       </c>
-      <c r="G23" s="1">
+      <c r="P23" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="5">
+        <v>39272</v>
+      </c>
+      <c r="C24" s="5">
+        <v>52830</v>
+      </c>
+      <c r="D24" s="5">
+        <v>25057</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5">
+        <v>64800</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="5">
+        <v>70000</v>
+      </c>
+      <c r="K24" s="4">
         <v>40898</v>
       </c>
-      <c r="C24" s="1">
+      <c r="L24" s="4">
         <v>49784</v>
       </c>
-      <c r="D24" s="1">
+      <c r="M24" s="4">
         <v>90341</v>
       </c>
-      <c r="E24" s="1">
+      <c r="N24" s="4">
         <v>109836</v>
       </c>
-      <c r="F24" s="1">
+      <c r="O24" s="4">
         <v>33804</v>
       </c>
-      <c r="G24" s="1">
+      <c r="P24" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="5">
+        <v>27000</v>
+      </c>
+      <c r="C25" s="5">
+        <v>18000</v>
+      </c>
+      <c r="D25" s="5">
+        <v>29000</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5">
+        <v>25000</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="5">
+        <v>35000</v>
+      </c>
+      <c r="K25" s="4">
         <v>30000</v>
       </c>
-      <c r="C25" s="1">
+      <c r="L25" s="4">
         <v>40000</v>
       </c>
-      <c r="D25" s="1">
+      <c r="M25" s="4">
         <v>50000</v>
       </c>
-      <c r="E25" s="1">
+      <c r="N25" s="4">
         <v>55000</v>
       </c>
-      <c r="F25" s="1">
+      <c r="O25" s="4">
         <v>30000</v>
       </c>
-      <c r="G25" s="1">
+      <c r="P25" s="4">
         <v>50000</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4">
         <v>499030</v>
       </c>
-      <c r="G26" s="1">
+      <c r="P26" s="4">
         <v>389186</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="5">
+        <v>103324</v>
+      </c>
+      <c r="C27" s="5">
+        <v>60000</v>
+      </c>
+      <c r="D27" s="5">
+        <v>100000</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5">
+        <v>100000</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="5">
+        <v>400000</v>
+      </c>
+      <c r="K27" s="4">
         <v>600410</v>
       </c>
-      <c r="C27" s="1">
+      <c r="L27" s="4">
         <v>925364</v>
       </c>
-      <c r="D27" s="1">
+      <c r="M27" s="4">
         <v>0</v>
       </c>
-      <c r="E27" s="1">
+      <c r="N27" s="4">
         <v>200000</v>
       </c>
-      <c r="F27" s="1">
+      <c r="O27" s="4">
         <v>200000</v>
       </c>
-      <c r="G27" s="1">
+      <c r="P27" s="4">
         <v>200000</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
-        <f>SUM(B13:B27)</f>
+      <c r="B28" s="4">
+        <f t="shared" ref="B28:I28" si="2">SUM(B13:B27)</f>
+        <v>2886345</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="2"/>
+        <v>2855803</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="2"/>
+        <v>2725242</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="2"/>
+        <v>3537964</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" ref="J28:P28" si="3">SUM(J13:J27)</f>
+        <v>4144656</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" si="3"/>
         <v>4087890</v>
       </c>
-      <c r="C28" s="1">
-        <f>SUM(C13:C27)</f>
+      <c r="L28" s="4">
+        <f t="shared" si="3"/>
         <v>4968588</v>
       </c>
-      <c r="D28" s="1">
-        <f>SUM(D13:D27)</f>
+      <c r="M28" s="4">
+        <f t="shared" si="3"/>
         <v>3867886</v>
       </c>
-      <c r="E28" s="1">
-        <f>SUM(E13:E27)</f>
+      <c r="N28" s="4">
+        <f t="shared" si="3"/>
         <v>3965093</v>
       </c>
-      <c r="F28" s="1">
-        <f>SUM(F13:F27)</f>
+      <c r="O28" s="4">
+        <f t="shared" si="3"/>
         <v>4162065</v>
       </c>
-      <c r="G28" s="1">
-        <f>SUM(G13:G27)</f>
+      <c r="P28" s="4">
+        <f t="shared" si="3"/>
         <v>2667086</v>
       </c>
+      <c r="S28" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="2">
-        <f>B8-B28</f>
+      <c r="B29" s="4">
+        <f t="shared" ref="B29:I29" si="4">B8-B28</f>
+        <v>3917057</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" si="4"/>
+        <v>4193942</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="4"/>
+        <v>4823924</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="4"/>
+        <v>4847004</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <f t="shared" ref="J29:P29" si="5">J8-J28</f>
+        <v>4360234</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="5"/>
         <v>4060058</v>
       </c>
-      <c r="C29" s="2">
-        <f>C8-C28</f>
+      <c r="L29" s="4">
+        <f t="shared" si="5"/>
         <v>3165120</v>
       </c>
-      <c r="D29" s="2">
-        <f>D8-D28</f>
+      <c r="M29" s="4">
+        <f t="shared" si="5"/>
         <v>3165656</v>
       </c>
-      <c r="E29" s="2">
-        <f>E8-E28</f>
+      <c r="N29" s="4">
+        <f t="shared" si="5"/>
         <v>2923424</v>
       </c>
-      <c r="F29" s="2">
-        <f>F8-F28</f>
+      <c r="O29" s="4">
+        <f t="shared" si="5"/>
         <v>3254925</v>
       </c>
-      <c r="G29" s="2">
-        <f>G8-G28</f>
+      <c r="P29" s="4">
+        <f t="shared" si="5"/>
         <v>3450047</v>
       </c>
+      <c r="S29" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="F32" t="s">
-        <v>29</v>
-      </c>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F34" t="s">
-        <v>30</v>
-      </c>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B32" s="1">
+        <v>2006</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2008</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2009</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2011</v>
+      </c>
+      <c r="H32" s="1">
+        <v>2012</v>
+      </c>
+      <c r="I32" s="1">
+        <v>2013</v>
+      </c>
+      <c r="J32" s="1">
+        <v>2014</v>
+      </c>
+      <c r="K32" s="1">
+        <v>2015</v>
+      </c>
+      <c r="L32" s="1">
+        <v>2016</v>
+      </c>
+      <c r="M32" s="1">
+        <v>2017</v>
+      </c>
+      <c r="N32" s="1">
+        <v>2018</v>
+      </c>
+      <c r="O32" s="1">
+        <v>2019</v>
+      </c>
+      <c r="P32" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="5">
+        <v>108410</v>
+      </c>
+      <c r="C34" s="5">
+        <v>106930</v>
+      </c>
+      <c r="D34" s="5">
+        <v>113590</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5">
+        <v>108460</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="5">
+        <v>103700</v>
+      </c>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4">
+        <v>105740</v>
+      </c>
+      <c r="N34" s="4">
+        <v>0</v>
+      </c>
+      <c r="O34" s="5">
+        <v>0</v>
+      </c>
+      <c r="P34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="5">
+        <v>320000</v>
+      </c>
+      <c r="C35" s="5">
+        <v>332000</v>
+      </c>
+      <c r="D35" s="5">
+        <v>342000</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5">
+        <v>254000</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="5">
+        <v>266000</v>
+      </c>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4">
+        <v>346000</v>
+      </c>
+      <c r="N35" s="4">
+        <v>316000</v>
+      </c>
+      <c r="O35" s="5">
+        <v>316000</v>
+      </c>
+      <c r="P35" s="5">
+        <v>316000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="5">
+        <v>92017</v>
+      </c>
+      <c r="C36" s="5">
+        <v>87337</v>
+      </c>
+      <c r="D36" s="5">
+        <v>78430</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5">
+        <v>49564</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="5">
+        <v>90720</v>
+      </c>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4">
+        <v>13228</v>
+      </c>
+      <c r="N36" s="4">
+        <v>72565</v>
+      </c>
+      <c r="O36" s="5">
+        <v>72565</v>
+      </c>
+      <c r="P36" s="5">
+        <v>72565</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="5">
+        <v>2500</v>
+      </c>
+      <c r="C37" s="5">
+        <v>2500</v>
+      </c>
+      <c r="D37" s="5">
+        <v>2500</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="5">
+        <v>2500</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="5">
+        <v>2500</v>
+      </c>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4">
+        <v>2500</v>
+      </c>
+      <c r="N37" s="4">
+        <v>0</v>
+      </c>
+      <c r="O37" s="5">
+        <v>0</v>
+      </c>
+      <c r="P37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="5">
+        <v>520200</v>
+      </c>
+      <c r="C38" s="5">
+        <v>658622</v>
+      </c>
+      <c r="D38" s="5">
+        <v>712892</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="5">
+        <v>940305</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="5">
+        <v>1454763</v>
+      </c>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4">
+        <v>1444644</v>
+      </c>
+      <c r="N38" s="4">
+        <v>1481531</v>
+      </c>
+      <c r="O38" s="5">
+        <v>1481531</v>
+      </c>
+      <c r="P38" s="5">
+        <v>1481531</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="5">
+        <v>4010</v>
+      </c>
+      <c r="C39" s="5">
+        <v>3545</v>
+      </c>
+      <c r="D39" s="5">
+        <v>3775</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="5">
+        <v>53460</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="5">
+        <v>3250</v>
+      </c>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4">
+        <v>0</v>
+      </c>
+      <c r="N39" s="4">
+        <v>0</v>
+      </c>
+      <c r="O39" s="5">
+        <v>0</v>
+      </c>
+      <c r="P39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="5">
+        <v>23600</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="5">
+        <v>0</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="5">
+        <v>0</v>
+      </c>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4">
+        <v>0</v>
+      </c>
+      <c r="N40" s="4">
+        <v>0</v>
+      </c>
+      <c r="O40" s="5">
+        <v>0</v>
+      </c>
+      <c r="P40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="5">
+        <v>43324</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M43" s="7">
+        <v>6666</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="B2:G7">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="K2:P7">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4805,8 +7944,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:G25 B13:E13 G13 B27:G27 B26:E26 G26">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="K14:P25 K13:N13 P13 K27:P27 K26:N26 P26">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4819,7 +7958,49 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:G27">
+  <conditionalFormatting sqref="K13:P27">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{31311FF5-8F87-4931-A11A-85F36212F46A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:P27">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6A9DDD2E-AC6A-470D-920B-E2D3C5168BE6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:P7">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{66625425-7737-424F-A055-ADDBB5EBC84A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:P41 M43">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -4828,7 +8009,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{31311FF5-8F87-4931-A11A-85F36212F46A}</x14:id>
+          <x14:id>{434C68F9-828C-4828-A200-1D439DF169C6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4848,7 +8029,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B2:G7</xm:sqref>
+          <xm:sqref>K2:P7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{350CABA5-DAA7-4BFD-B423-2FDBEDC3BEC9}">
@@ -4859,7 +8040,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B14:G25 B13:E13 G13 B27:G27 B26:E26 G26</xm:sqref>
+          <xm:sqref>K14:P25 K13:N13 P13 K27:P27 K26:N26 P26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{31311FF5-8F87-4931-A11A-85F36212F46A}">
@@ -4870,10 +8051,58 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B13:G27</xm:sqref>
+          <xm:sqref>K13:P27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6A9DDD2E-AC6A-470D-920B-E2D3C5168BE6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B13:P27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{66625425-7737-424F-A055-ADDBB5EBC84A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:P7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{434C68F9-828C-4828-A200-1D439DF169C6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B34:P41 M43</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4620E6E1-FC7A-44A7-80CD-547253E85769}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tmp/6年分会計比較.xlsx
+++ b/tmp/6年分会計比較.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\github\neighborhood\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{759CFEC2-325D-46D6-AFAB-3EF543798644}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FFB2E3-D1FC-43DA-993B-7F28F8011159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{91722BC7-0123-42BB-87D5-AEEE062398CE}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{91722BC7-0123-42BB-87D5-AEEE062398CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="70">
   <si>
     <t>平成27年</t>
     <rPh sb="0" eb="2">
@@ -515,6 +514,216 @@
     </rPh>
     <rPh sb="4" eb="7">
       <t>ホジョキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文化スポーツ部</t>
+    <rPh sb="0" eb="2">
+      <t>ブンカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高齢者福祉</t>
+    <rPh sb="0" eb="3">
+      <t>コウレイシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フクシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平成９年</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>予備費</t>
+    <rPh sb="0" eb="3">
+      <t>ヨビヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平成１０年</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>繰越金が間違っている。</t>
+    <rPh sb="0" eb="3">
+      <t>クリコシキン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>マチガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>繰越金が異なる。</t>
+    <rPh sb="0" eb="3">
+      <t>クリコシキン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平成14年</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平成15年</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平成16年</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>費目整理</t>
+    <rPh sb="0" eb="4">
+      <t>ヒモクセイリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自主防災組織補助金</t>
+    <rPh sb="0" eb="2">
+      <t>ジシュ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ボウサイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ホジョキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>並びが変わった。</t>
+    <rPh sb="0" eb="1">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平成17年</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平成１１年</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平成１２年</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平成１３年</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平成１４年</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平成１５年</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平成１６年</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平成１７年</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -565,7 +774,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -603,6 +812,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -612,7 +834,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -637,12 +859,67 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -732,7 +1009,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$12:$P$12</c:f>
+              <c:f>Sheet1!$T$12:$Y$12</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -758,7 +1035,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$13:$P$13</c:f>
+              <c:f>Sheet1!$T$13:$Y$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -815,7 +1092,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$12:$P$12</c:f>
+              <c:f>Sheet1!$T$12:$Y$12</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -841,7 +1118,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$14:$P$14</c:f>
+              <c:f>Sheet1!$T$14:$Y$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -898,7 +1175,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$12:$P$12</c:f>
+              <c:f>Sheet1!$T$12:$Y$12</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -924,7 +1201,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$15:$P$15</c:f>
+              <c:f>Sheet1!$T$15:$Y$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -981,7 +1258,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$12:$P$12</c:f>
+              <c:f>Sheet1!$T$12:$Y$12</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1007,7 +1284,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$16:$P$16</c:f>
+              <c:f>Sheet1!$T$16:$Y$16</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1064,7 +1341,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$12:$P$12</c:f>
+              <c:f>Sheet1!$T$12:$Y$12</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1090,7 +1367,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$17:$P$17</c:f>
+              <c:f>Sheet1!$T$17:$Y$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1147,7 +1424,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$12:$P$12</c:f>
+              <c:f>Sheet1!$T$12:$Y$12</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1173,7 +1450,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$18:$P$18</c:f>
+              <c:f>Sheet1!$T$18:$Y$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1232,7 +1509,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$12:$P$12</c:f>
+              <c:f>Sheet1!$T$12:$Y$12</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1258,7 +1535,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$19:$P$19</c:f>
+              <c:f>Sheet1!$T$19:$Y$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1317,7 +1594,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$12:$P$12</c:f>
+              <c:f>Sheet1!$T$12:$Y$12</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1343,7 +1620,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$20:$P$20</c:f>
+              <c:f>Sheet1!$T$20:$Y$20</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1402,7 +1679,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$12:$P$12</c:f>
+              <c:f>Sheet1!$T$12:$Y$12</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1428,7 +1705,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$21:$P$21</c:f>
+              <c:f>Sheet1!$T$21:$Y$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1487,7 +1764,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$12:$P$12</c:f>
+              <c:f>Sheet1!$T$12:$Y$12</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1513,7 +1790,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$22:$P$22</c:f>
+              <c:f>Sheet1!$T$22:$Y$22</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1572,7 +1849,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$12:$P$12</c:f>
+              <c:f>Sheet1!$T$12:$Y$12</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1598,7 +1875,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$23:$P$23</c:f>
+              <c:f>Sheet1!$T$23:$Y$23</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1657,7 +1934,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$12:$P$12</c:f>
+              <c:f>Sheet1!$T$12:$Y$12</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1683,7 +1960,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$24:$P$24</c:f>
+              <c:f>Sheet1!$T$24:$Y$24</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1743,7 +2020,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$12:$P$12</c:f>
+              <c:f>Sheet1!$T$12:$Y$12</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1769,7 +2046,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$25:$P$25</c:f>
+              <c:f>Sheet1!$T$25:$Y$25</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1829,7 +2106,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$12:$P$12</c:f>
+              <c:f>Sheet1!$T$12:$Y$12</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1855,7 +2132,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$26:$P$26</c:f>
+              <c:f>Sheet1!$T$26:$Y$26</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1879,7 +2156,7 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$27</c:f>
+              <c:f>Sheet1!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1903,7 +2180,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$12:$P$12</c:f>
+              <c:f>Sheet1!$T$12:$Y$12</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1929,7 +2206,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$27:$P$27</c:f>
+              <c:f>Sheet1!$T$28:$Y$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2233,7 +2510,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$1:$P$1</c:f>
+              <c:f>Sheet1!$T$1:$Y$1</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2259,7 +2536,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$P$2</c:f>
+              <c:f>Sheet1!$T$2:$Y$2</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2316,7 +2593,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$1:$P$1</c:f>
+              <c:f>Sheet1!$T$1:$Y$1</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2342,7 +2619,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$P$3</c:f>
+              <c:f>Sheet1!$T$3:$Y$3</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2399,7 +2676,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$1:$P$1</c:f>
+              <c:f>Sheet1!$T$1:$Y$1</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2425,7 +2702,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$4:$P$4</c:f>
+              <c:f>Sheet1!$T$4:$Y$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2482,7 +2759,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$1:$P$1</c:f>
+              <c:f>Sheet1!$T$1:$Y$1</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2508,7 +2785,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$5:$P$5</c:f>
+              <c:f>Sheet1!$T$5:$Y$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2565,7 +2842,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$1:$P$1</c:f>
+              <c:f>Sheet1!$T$1:$Y$1</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2591,7 +2868,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$6:$P$6</c:f>
+              <c:f>Sheet1!$T$6:$Y$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2648,7 +2925,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$1:$P$1</c:f>
+              <c:f>Sheet1!$T$1:$Y$1</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2674,7 +2951,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$7:$P$7</c:f>
+              <c:f>Sheet1!$T$7:$Y$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2939,7 +3216,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6648177058342088E-2"/>
+          <c:y val="0.13396347901232109"/>
+          <c:w val="0.51229068251784338"/>
+          <c:h val="0.62679400735782553"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -2983,52 +3270,79 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$P$1</c:f>
+              <c:f>Sheet1!$B$1:$Y$1</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>平成９年</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>平成１０年</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>平成１１年</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>平成１２年</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>平成１３年</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>平成14年</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>平成15年</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>平成16年</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>平成17年</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>平成18年</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="10">
                   <c:v>平成19年</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="11">
                   <c:v>平成20年</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="12">
                   <c:v>平成21年</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
                   <c:v>平成22年</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="14">
                   <c:v>平成23年</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="15">
                   <c:v>平成24年</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="16">
                   <c:v>平成25年</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="17">
                   <c:v>平成26年</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="18">
                   <c:v>平成27年</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
                   <c:v>平成28年</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="20">
                   <c:v>平成29年</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="21">
                   <c:v>平成30年</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="22">
                   <c:v>令和元年</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="23">
                   <c:v>令和2年</c:v>
                 </c:pt>
               </c:strCache>
@@ -3036,41 +3350,56 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$P$2</c:f>
+              <c:f>Sheet1!$B$2:$Y$2</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>2327753</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1639568</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2832723</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3375355</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3559805</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>3700842</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="10">
                   <c:v>3917057</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="11">
                   <c:v>4202612</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="14">
                   <c:v>4889601</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="17">
                   <c:v>4639367</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="18">
                   <c:v>4360234</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
                   <c:v>4060058</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="20">
                   <c:v>3165656</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="21">
                   <c:v>3168532</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="22">
                   <c:v>2923424</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="23">
                   <c:v>3254925</c:v>
                 </c:pt>
               </c:numCache>
@@ -3123,52 +3452,79 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$P$1</c:f>
+              <c:f>Sheet1!$B$1:$Y$1</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>平成９年</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>平成１０年</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>平成１１年</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>平成１２年</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>平成１３年</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>平成14年</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>平成15年</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>平成16年</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>平成17年</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>平成18年</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="10">
                   <c:v>平成19年</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="11">
                   <c:v>平成20年</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="12">
                   <c:v>平成21年</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
                   <c:v>平成22年</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="14">
                   <c:v>平成23年</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="15">
                   <c:v>平成24年</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="16">
                   <c:v>平成25年</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="17">
                   <c:v>平成26年</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="18">
                   <c:v>平成27年</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
                   <c:v>平成28年</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="20">
                   <c:v>平成29年</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="21">
                   <c:v>平成30年</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="22">
                   <c:v>令和元年</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="23">
                   <c:v>令和2年</c:v>
                 </c:pt>
               </c:strCache>
@@ -3176,41 +3532,56 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$P$3</c:f>
+              <c:f>Sheet1!$B$3:$Y$3</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>1441600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1420000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1370400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1364400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1351200</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1358600</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="10">
                   <c:v>1362400</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="11">
                   <c:v>1492000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="14">
                   <c:v>1497200</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="17">
                   <c:v>1480400</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="18">
                   <c:v>1460000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
                   <c:v>1456400</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="20">
                   <c:v>1430800</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="21">
                   <c:v>1420800</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="22">
                   <c:v>1402800</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="23">
                   <c:v>1396800</c:v>
                 </c:pt>
               </c:numCache>
@@ -3263,52 +3634,79 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$P$1</c:f>
+              <c:f>Sheet1!$B$1:$Y$1</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>平成９年</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>平成１０年</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>平成１１年</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>平成１２年</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>平成１３年</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>平成14年</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>平成15年</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>平成16年</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>平成17年</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>平成18年</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="10">
                   <c:v>平成19年</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="11">
                   <c:v>平成20年</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="12">
                   <c:v>平成21年</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
                   <c:v>平成22年</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="14">
                   <c:v>平成23年</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="15">
                   <c:v>平成24年</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="16">
                   <c:v>平成25年</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="17">
                   <c:v>平成26年</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="18">
                   <c:v>平成27年</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
                   <c:v>平成28年</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="20">
                   <c:v>平成29年</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="21">
                   <c:v>平成30年</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="22">
                   <c:v>令和元年</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="23">
                   <c:v>令和2年</c:v>
                 </c:pt>
               </c:strCache>
@@ -3316,41 +3714,56 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$P$4</c:f>
+              <c:f>Sheet1!$B$4:$Y$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>1058578</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1018160</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>982150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1067340</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1136600</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1114061</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="10">
                   <c:v>1190934</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="11">
                   <c:v>1253187</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="14">
                   <c:v>1408289</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="17">
                   <c:v>1920933</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="18">
                   <c:v>1805546</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
                   <c:v>2112057</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="20">
                   <c:v>1972112</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="21">
                   <c:v>1870096</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="22">
                   <c:v>2074970</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="23">
                   <c:v>1408199</c:v>
                 </c:pt>
               </c:numCache>
@@ -3403,52 +3816,79 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$P$1</c:f>
+              <c:f>Sheet1!$B$1:$Y$1</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>平成９年</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>平成１０年</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>平成１１年</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>平成１２年</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>平成１３年</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>平成14年</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>平成15年</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>平成16年</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>平成17年</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>平成18年</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="10">
                   <c:v>平成19年</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="11">
                   <c:v>平成20年</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="12">
                   <c:v>平成21年</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
                   <c:v>平成22年</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="14">
                   <c:v>平成23年</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="15">
                   <c:v>平成24年</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="16">
                   <c:v>平成25年</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="17">
                   <c:v>平成26年</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="18">
                   <c:v>平成27年</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
                   <c:v>平成28年</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="20">
                   <c:v>平成29年</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="21">
                   <c:v>平成30年</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="22">
                   <c:v>令和元年</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="23">
                   <c:v>令和2年</c:v>
                 </c:pt>
               </c:strCache>
@@ -3456,41 +3896,56 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$P$5</c:f>
+              <c:f>Sheet1!$B$5:$Y$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>394000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>361000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>491000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>499000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>419000</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>467000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>383000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>427000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>432000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>348000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>408000</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>383000</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>427000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>432000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>348000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>408000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>383000</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>342000</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="21">
                   <c:v>293000</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="22">
                   <c:v>321000</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3543,52 +3998,79 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$P$1</c:f>
+              <c:f>Sheet1!$B$1:$Y$1</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>平成９年</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>平成１０年</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>平成１１年</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>平成１２年</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>平成１３年</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>平成14年</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>平成15年</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>平成16年</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>平成17年</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>平成18年</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="10">
                   <c:v>平成19年</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="11">
                   <c:v>平成20年</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="12">
                   <c:v>平成21年</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
                   <c:v>平成22年</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="14">
                   <c:v>平成23年</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="15">
                   <c:v>平成24年</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="16">
                   <c:v>平成25年</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="17">
                   <c:v>平成26年</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="18">
                   <c:v>平成27年</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
                   <c:v>平成28年</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="20">
                   <c:v>平成29年</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="21">
                   <c:v>平成30年</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="22">
                   <c:v>令和元年</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="23">
                   <c:v>令和2年</c:v>
                 </c:pt>
               </c:strCache>
@@ -3596,41 +4078,56 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$P$6</c:f>
+              <c:f>Sheet1!$B$6:$Y$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>108010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>124136</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120445</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>132823</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77390</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>162899</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="10">
                   <c:v>196354</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="11">
                   <c:v>174367</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="14">
                   <c:v>157878</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="17">
                   <c:v>116190</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="18">
                   <c:v>114168</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
                   <c:v>122193</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="20">
                   <c:v>122974</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="21">
                   <c:v>136089</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="22">
                   <c:v>343297</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="23">
                   <c:v>57209</c:v>
                 </c:pt>
               </c:numCache>
@@ -3683,52 +4180,79 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$P$1</c:f>
+              <c:f>Sheet1!$B$1:$Y$1</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>平成９年</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>平成１０年</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>平成１１年</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>平成１２年</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>平成１３年</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>平成14年</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>平成15年</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>平成16年</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>平成17年</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>平成18年</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="10">
                   <c:v>平成19年</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="11">
                   <c:v>平成20年</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="12">
                   <c:v>平成21年</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
                   <c:v>平成22年</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="14">
                   <c:v>平成23年</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="15">
                   <c:v>平成24年</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="16">
                   <c:v>平成25年</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="17">
                   <c:v>平成26年</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="18">
                   <c:v>平成27年</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
                   <c:v>平成28年</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="20">
                   <c:v>平成29年</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="21">
                   <c:v>平成30年</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="22">
                   <c:v>令和元年</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="23">
                   <c:v>令和2年</c:v>
                 </c:pt>
               </c:strCache>
@@ -3736,11 +4260,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$P$7</c:f>
+              <c:f>Sheet1!$B$7:$Y$7</c:f>
               <c:numCache>
-                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="13">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="22" formatCode="#,##0_);[Red]\(#,##0\)">
                   <c:v>351499</c:v>
                 </c:pt>
               </c:numCache>
@@ -3815,52 +4339,79 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$P$1</c:f>
+              <c:f>Sheet1!$B$1:$Y$1</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>平成９年</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>平成１０年</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>平成１１年</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>平成１２年</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>平成１３年</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>平成14年</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>平成15年</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>平成16年</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>平成17年</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>平成18年</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="10">
                   <c:v>平成19年</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="11">
                   <c:v>平成20年</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="12">
                   <c:v>平成21年</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
                   <c:v>平成22年</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="14">
                   <c:v>平成23年</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="15">
                   <c:v>平成24年</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="16">
                   <c:v>平成25年</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="17">
                   <c:v>平成26年</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="18">
                   <c:v>平成27年</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
                   <c:v>平成28年</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="20">
                   <c:v>平成29年</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="21">
                   <c:v>平成30年</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="22">
                   <c:v>令和元年</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="23">
                   <c:v>令和2年</c:v>
                 </c:pt>
               </c:strCache>
@@ -3868,53 +4419,56 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$P$8</c:f>
+              <c:f>Sheet1!$B$8:$Y$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>5329941</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4562864</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5796718</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6438918</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6543995</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>6803402</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="10">
                   <c:v>7049745</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="11">
                   <c:v>7549166</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="14">
                   <c:v>8384968</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="17">
                   <c:v>8504890</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="18">
                   <c:v>8147948</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
                   <c:v>8133708</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="20">
                   <c:v>7033542</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="21">
                   <c:v>6888517</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="22">
                   <c:v>7416990</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="23">
                   <c:v>6117133</c:v>
                 </c:pt>
               </c:numCache>
@@ -4107,6 +4661,1098 @@
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.68727782821594796"/>
+          <c:y val="6.9056061462398829E-2"/>
+          <c:w val="0.14175617458927803"/>
+          <c:h val="0.44667278766465157"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.60419794016975947"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>自治会交付金</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$S$34:$Y$34</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>平成26年</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>平成27年</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>平成28年</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>平成29年</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>平成30年</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>平成31年</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>令和2年</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$35:$Y$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>103700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104040</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105740</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>112850</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-550C-46AE-B78C-81CA9B6C1F28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>敬老会補助金</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$S$34:$Y$34</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>平成26年</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>平成27年</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>平成28年</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>平成29年</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>平成30年</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>平成31年</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>令和2年</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$36:$Y$36</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>266000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>318000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>346000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>316000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>308000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-550C-46AE-B78C-81CA9B6C1F28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>有価物回収報奨金</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$S$34:$Y$34</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>平成26年</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>平成27年</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>平成28年</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>平成29年</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>平成30年</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>平成31年</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>令和2年</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$37:$Y$37</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>90720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73228</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72565</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35360</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72565</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-550C-46AE-B78C-81CA9B6C1F28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>緑の保全助成金</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$S$34:$Y$34</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>平成26年</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>平成27年</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>平成28年</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>平成29年</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>平成30年</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>平成31年</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>令和2年</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$38:$Y$38</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-550C-46AE-B78C-81CA9B6C1F28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>防犯灯維持管理補助金</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$S$34:$Y$34</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>平成26年</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>平成27年</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>平成28年</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>平成29年</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>平成30年</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>平成31年</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>令和2年</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$39:$Y$39</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1454763</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1569669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1444644</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1481531</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1604760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1481531</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-550C-46AE-B78C-81CA9B6C1F28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>日赤募金手数料</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$S$34:$Y$34</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>平成26年</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>平成27年</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>平成28年</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>平成29年</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>平成30年</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>平成31年</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>令和2年</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$40:$Y$40</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-550C-46AE-B78C-81CA9B6C1F28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>報歳　消火器詰め替え</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$S$34:$Y$34</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>平成26年</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>平成27年</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>平成28年</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>平成29年</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>平成30年</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>平成31年</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>令和2年</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$41:$Y$41</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-550C-46AE-B78C-81CA9B6C1F28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>会館維持補助金</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$S$34:$Y$34</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>平成26年</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>平成27年</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>平成28年</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>平成29年</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>平成30年</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>平成31年</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>令和2年</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$42:$Y$42</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-550C-46AE-B78C-81CA9B6C1F28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>文化スポーツ部</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$S$34:$Y$34</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>平成26年</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>平成27年</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>平成28年</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>平成29年</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>平成30年</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>平成31年</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>令和2年</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$43:$Y$43</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-550C-46AE-B78C-81CA9B6C1F28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>高齢者福祉</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$S$34:$Y$34</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>平成26年</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>平成27年</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>平成28年</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>平成29年</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>平成30年</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>平成31年</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>令和2年</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$44:$Y$44</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="5">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-550C-46AE-B78C-81CA9B6C1F28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1089261535"/>
+        <c:axId val="1089253215"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1089261535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1089253215"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1089253215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1089261535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4310,6 +5956,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -5821,27 +7507,681 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0C1A78F-744A-443D-BB59-AFEEEA1BA9D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>217170</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{114DE0D3-A164-43A4-9E94-5A83BEDE7E77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>132260</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66129</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>312964</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>21497</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E62381-12E1-4216-930A-0FF58A61042C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>287655</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>62048</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>182608</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="グラフ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2CD722B-58D7-40FA-9573-EC6EBACCB9DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>445770</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>478154</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>21556</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>30479</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>112996</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D82BBAFC-F7FC-4A45-8B22-E55CD3C43CFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A817BBA-15A2-4C0B-88E2-7B1FB65496FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5863,122 +8203,14 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12609195" y="0"/>
-          <a:ext cx="10696574" cy="8026366"/>
+          <a:off x="0" y="228600"/>
+          <a:ext cx="10698479" cy="8113996"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>74295</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="グラフ 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0C1A78F-744A-443D-BB59-AFEEEA1BA9D8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>339090</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>217170</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="グラフ 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{114DE0D3-A164-43A4-9E94-5A83BEDE7E77}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>136070</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>68034</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>472439</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>25307</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E62381-12E1-4216-930A-0FF58A61042C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6281,1036 +8513,1451 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A9483D-CB65-47B5-B1B3-0EF3888FC64F}">
-  <dimension ref="A1:X44"/>
+  <dimension ref="A1:AG49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="11.09765625" customWidth="1"/>
+    <col min="2" max="25" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4">
-        <v>3700842</v>
+        <v>2327753</v>
       </c>
       <c r="C2" s="4">
-        <v>3917057</v>
-      </c>
-      <c r="D2" s="4">
-        <v>4202612</v>
-      </c>
+        <v>1639568</v>
+      </c>
+      <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
+        <v>2832723</v>
+      </c>
+      <c r="H2" s="4">
+        <v>3375355</v>
+      </c>
+      <c r="I2" s="4">
+        <v>3559805</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4">
+        <v>3700842</v>
+      </c>
+      <c r="L2" s="4">
+        <v>3917057</v>
+      </c>
+      <c r="M2" s="4">
+        <v>4202612</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="5">
         <v>4889601</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5">
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="5">
         <v>4639367</v>
       </c>
-      <c r="K2" s="4">
+      <c r="T2" s="4">
         <v>4360234</v>
       </c>
-      <c r="L2" s="4">
+      <c r="U2" s="4">
         <v>4060058</v>
       </c>
-      <c r="M2" s="4">
+      <c r="V2" s="4">
         <v>3165656</v>
       </c>
-      <c r="N2" s="4">
+      <c r="W2" s="4">
         <v>3168532</v>
       </c>
-      <c r="O2" s="4">
+      <c r="X2" s="4">
         <v>2923424</v>
       </c>
-      <c r="P2" s="4">
+      <c r="Y2" s="4">
         <v>3254925</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4">
-        <v>1358600</v>
+        <v>1441600</v>
       </c>
       <c r="C3" s="4">
-        <v>1362400</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1492000</v>
-      </c>
+        <v>1420000</v>
+      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
+        <v>1370400</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1364400</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1351200</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4">
+        <v>1358600</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1362400</v>
+      </c>
+      <c r="M3" s="4">
+        <v>1492000</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="5">
         <v>1497200</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5">
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="5">
         <v>1480400</v>
       </c>
-      <c r="K3" s="4">
+      <c r="T3" s="4">
         <v>1460000</v>
       </c>
-      <c r="L3" s="4">
+      <c r="U3" s="4">
         <v>1456400</v>
       </c>
-      <c r="M3" s="4">
+      <c r="V3" s="4">
         <v>1430800</v>
       </c>
-      <c r="N3" s="4">
+      <c r="W3" s="4">
         <v>1420800</v>
       </c>
-      <c r="O3" s="4">
+      <c r="X3" s="4">
         <v>1402800</v>
       </c>
-      <c r="P3" s="4">
+      <c r="Y3" s="4">
         <v>1396800</v>
       </c>
-      <c r="S3">
-        <f t="shared" ref="S3:X3" si="0">K3/4800</f>
+      <c r="AB3">
+        <f t="shared" ref="AB3:AG3" si="0">T3/4800</f>
         <v>304.16666666666669</v>
       </c>
-      <c r="T3">
+      <c r="AC3">
         <f t="shared" si="0"/>
         <v>303.41666666666669</v>
       </c>
-      <c r="U3">
+      <c r="AD3">
         <f t="shared" si="0"/>
         <v>298.08333333333331</v>
       </c>
-      <c r="V3">
+      <c r="AE3">
         <f t="shared" si="0"/>
         <v>296</v>
       </c>
-      <c r="W3">
+      <c r="AF3">
         <f t="shared" si="0"/>
         <v>292.25</v>
       </c>
-      <c r="X3">
+      <c r="AG3">
         <f t="shared" si="0"/>
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="4">
-        <v>1114061</v>
+        <v>1058578</v>
       </c>
       <c r="C4" s="4">
-        <v>1190934</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1253187</v>
-      </c>
+        <v>1018160</v>
+      </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
+        <v>982150</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1067340</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1136600</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4">
+        <v>1114061</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1190934</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1253187</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="5">
         <v>1408289</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5">
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="5">
         <v>1920933</v>
       </c>
-      <c r="K4" s="4">
+      <c r="T4" s="4">
         <v>1805546</v>
       </c>
-      <c r="L4" s="4">
+      <c r="U4" s="4">
         <v>2112057</v>
       </c>
-      <c r="M4" s="4">
+      <c r="V4" s="4">
         <v>1972112</v>
       </c>
-      <c r="N4" s="4">
+      <c r="W4" s="4">
         <v>1870096</v>
       </c>
-      <c r="O4" s="4">
+      <c r="X4" s="4">
         <v>2074970</v>
       </c>
-      <c r="P4" s="4">
+      <c r="Y4" s="4">
         <v>1408199</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5">
-        <v>467000</v>
-      </c>
-      <c r="C5" s="5">
-        <v>383000</v>
-      </c>
-      <c r="D5" s="5">
-        <v>427000</v>
-      </c>
+      <c r="B5" s="4">
+        <v>394000</v>
+      </c>
+      <c r="C5" s="4">
+        <v>361000</v>
+      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
+        <v>491000</v>
+      </c>
+      <c r="H5" s="4">
+        <v>499000</v>
+      </c>
+      <c r="I5" s="4">
+        <v>419000</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5">
+        <v>467000</v>
+      </c>
+      <c r="L5" s="5">
+        <v>383000</v>
+      </c>
+      <c r="M5" s="5">
+        <v>427000</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="5">
         <v>432000</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5">
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="5">
         <v>348000</v>
       </c>
-      <c r="K5" s="4">
+      <c r="T5" s="4">
         <v>408000</v>
       </c>
-      <c r="L5" s="4">
+      <c r="U5" s="4">
         <v>383000</v>
       </c>
-      <c r="M5" s="4">
+      <c r="V5" s="4">
         <v>342000</v>
       </c>
-      <c r="N5" s="4">
+      <c r="W5" s="4">
         <v>293000</v>
       </c>
-      <c r="O5" s="4">
+      <c r="X5" s="4">
         <v>321000</v>
       </c>
-      <c r="P5" s="4">
+      <c r="Y5" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="5">
+        <v>108010</v>
+      </c>
+      <c r="C6" s="5">
+        <v>124136</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5">
+        <v>120445</v>
+      </c>
+      <c r="H6" s="5">
+        <v>132823</v>
+      </c>
+      <c r="I6" s="5">
+        <v>77390</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5">
         <v>162899</v>
       </c>
-      <c r="C6" s="5">
+      <c r="L6" s="5">
         <v>196354</v>
       </c>
-      <c r="D6" s="5">
+      <c r="M6" s="5">
         <v>174367</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="5">
         <v>157878</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5">
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="5">
         <v>116190</v>
       </c>
-      <c r="K6" s="4">
+      <c r="T6" s="4">
         <v>114168</v>
       </c>
-      <c r="L6" s="4">
+      <c r="U6" s="4">
         <v>122193</v>
       </c>
-      <c r="M6" s="4">
+      <c r="V6" s="4">
         <v>122974</v>
       </c>
-      <c r="N6" s="4">
+      <c r="W6" s="4">
         <v>136089</v>
       </c>
-      <c r="O6" s="4">
+      <c r="X6" s="4">
         <v>343297</v>
       </c>
-      <c r="P6" s="4">
+      <c r="Y6" s="4">
         <v>57209</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="4">
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4">
         <v>351499</v>
       </c>
-      <c r="P7" s="4"/>
+      <c r="Y7" s="4"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="4">
-        <f t="shared" ref="B8:P8" si="1">SUM(B2:B7)</f>
-        <v>6803402</v>
+        <f t="shared" ref="B8:Y8" si="1">SUM(B2:B7)</f>
+        <v>5329941</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="1"/>
+        <v>4562864</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
+        <v>5796718</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="1"/>
+        <v>6438918</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="1"/>
+        <v>6543995</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>6803402</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="1"/>
         <v>7049745</v>
       </c>
-      <c r="D8" s="4">
+      <c r="M8" s="4">
         <f t="shared" si="1"/>
         <v>7549166</v>
       </c>
-      <c r="E8" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4">
         <f t="shared" si="1"/>
         <v>8384968</v>
       </c>
-      <c r="H8" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4">
         <f t="shared" si="1"/>
         <v>8504890</v>
       </c>
-      <c r="K8" s="4">
+      <c r="T8" s="4">
         <f t="shared" si="1"/>
         <v>8147948</v>
       </c>
-      <c r="L8" s="4">
+      <c r="U8" s="4">
         <f t="shared" si="1"/>
         <v>8133708</v>
       </c>
-      <c r="M8" s="4">
+      <c r="V8" s="4">
         <f t="shared" si="1"/>
         <v>7033542</v>
       </c>
-      <c r="N8" s="4">
+      <c r="W8" s="4">
         <f t="shared" si="1"/>
         <v>6888517</v>
       </c>
-      <c r="O8" s="4">
+      <c r="X8" s="4">
         <f t="shared" si="1"/>
         <v>7416990</v>
       </c>
-      <c r="P8" s="4">
+      <c r="Y8" s="4">
         <f t="shared" si="1"/>
         <v>6117133</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="N12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="O12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="P12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="Q12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="R12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="S12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="T12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="U12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="V12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="W12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="X12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="Y12" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="5">
+        <v>603442</v>
+      </c>
+      <c r="C13" s="5">
+        <v>648336</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5">
+        <v>421325</v>
+      </c>
+      <c r="H13" s="5">
+        <v>625076</v>
+      </c>
+      <c r="I13" s="5">
+        <v>631297</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5">
         <v>549250</v>
       </c>
-      <c r="C13" s="5">
+      <c r="L13" s="5">
         <v>819351</v>
       </c>
-      <c r="D13" s="5">
+      <c r="M13" s="5">
         <v>836561</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5">
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="5">
         <v>923923</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="5">
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="5">
         <v>1603503</v>
       </c>
-      <c r="K13" s="4">
+      <c r="T13" s="4">
         <v>1247700</v>
       </c>
-      <c r="L13" s="4">
+      <c r="U13" s="4">
         <v>1702950</v>
       </c>
-      <c r="M13" s="4">
+      <c r="V13" s="4">
         <v>1505714</v>
       </c>
-      <c r="N13" s="4">
+      <c r="W13" s="4">
         <v>1324931</v>
       </c>
-      <c r="O13" s="4">
+      <c r="X13" s="4">
         <v>1169250</v>
       </c>
-      <c r="P13" s="4">
+      <c r="Y13" s="4">
         <v>844000</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="5">
+        <v>509671</v>
+      </c>
+      <c r="C14" s="5">
+        <v>493390</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5">
+        <v>482367</v>
+      </c>
+      <c r="H14" s="5">
+        <v>547729</v>
+      </c>
+      <c r="I14" s="5">
+        <v>534684</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5">
         <v>573408</v>
       </c>
-      <c r="C14" s="5">
+      <c r="L14" s="5">
         <v>591486</v>
       </c>
-      <c r="D14" s="5">
+      <c r="M14" s="5">
         <v>566167</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5">
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="5">
         <v>418128</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="5">
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="5">
         <v>421164</v>
       </c>
-      <c r="K14" s="4">
+      <c r="T14" s="4">
         <v>434796</v>
       </c>
-      <c r="L14" s="4">
+      <c r="U14" s="4">
         <v>483019</v>
       </c>
-      <c r="M14" s="4">
+      <c r="V14" s="4">
         <v>590652</v>
       </c>
-      <c r="N14" s="4">
+      <c r="W14" s="4">
         <v>574134</v>
       </c>
-      <c r="O14" s="4">
+      <c r="X14" s="4">
         <v>582010</v>
       </c>
-      <c r="P14" s="4">
+      <c r="Y14" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="5">
+        <v>390215</v>
+      </c>
+      <c r="C15" s="5">
+        <v>375394</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5">
+        <v>404919</v>
+      </c>
+      <c r="H15" s="5">
+        <v>480200</v>
+      </c>
+      <c r="I15" s="5">
+        <v>458513</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5">
         <v>472612</v>
       </c>
-      <c r="C15" s="5">
+      <c r="L15" s="5">
         <v>429733</v>
       </c>
-      <c r="D15" s="5">
+      <c r="M15" s="5">
         <v>317338</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5">
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="5">
         <v>447572</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="5">
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="5">
         <v>439192</v>
       </c>
-      <c r="K15" s="4">
+      <c r="T15" s="4">
         <v>475414</v>
       </c>
-      <c r="L15" s="4">
+      <c r="U15" s="4">
         <v>515757</v>
       </c>
-      <c r="M15" s="4">
+      <c r="V15" s="4">
         <v>437401</v>
       </c>
-      <c r="N15" s="4">
+      <c r="W15" s="4">
         <v>474925</v>
       </c>
-      <c r="O15" s="4">
+      <c r="X15" s="4">
         <v>461946</v>
       </c>
-      <c r="P15" s="4">
+      <c r="Y15" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="5">
+        <v>304312</v>
+      </c>
+      <c r="C16" s="5">
+        <v>271416</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5">
+        <v>273188</v>
+      </c>
+      <c r="H16" s="5">
+        <v>314732</v>
+      </c>
+      <c r="I16" s="5">
+        <v>292587</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5">
         <v>306886</v>
       </c>
-      <c r="C16" s="5">
+      <c r="L16" s="5">
         <v>248953</v>
       </c>
-      <c r="D16" s="5">
+      <c r="M16" s="5">
         <v>251937</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5">
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="5">
         <v>215353</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="6">
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="6">
         <v>363437</v>
       </c>
-      <c r="K16" s="4">
+      <c r="T16" s="4">
         <v>361655</v>
       </c>
-      <c r="L16" s="4">
+      <c r="U16" s="4">
         <v>307714</v>
       </c>
-      <c r="M16" s="4">
+      <c r="V16" s="4">
         <v>335066</v>
       </c>
-      <c r="N16" s="4">
+      <c r="W16" s="4">
         <v>314131</v>
       </c>
-      <c r="O16" s="4">
+      <c r="X16" s="4">
         <v>292751</v>
       </c>
-      <c r="P16" s="4">
+      <c r="Y16" s="4">
         <v>70000</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="5">
+        <v>188117</v>
+      </c>
+      <c r="C17" s="5">
+        <v>190000</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5">
+        <v>190000</v>
+      </c>
+      <c r="H17" s="5">
         <v>200000</v>
       </c>
-      <c r="C17" s="5">
+      <c r="I17" s="5">
         <v>200000</v>
       </c>
-      <c r="D17" s="5">
+      <c r="J17" s="5"/>
+      <c r="K17" s="5">
         <v>200000</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5">
+      <c r="L17" s="5">
         <v>200000</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="5">
+      <c r="M17" s="5">
+        <v>200000</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="5">
+        <v>200000</v>
+      </c>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="5">
         <v>219088</v>
       </c>
-      <c r="K17" s="4">
+      <c r="T17" s="4">
         <v>334445</v>
       </c>
-      <c r="L17" s="4">
+      <c r="U17" s="4">
         <v>264194</v>
       </c>
-      <c r="M17" s="4">
+      <c r="V17" s="4">
         <v>243064</v>
       </c>
-      <c r="N17" s="4">
+      <c r="W17" s="4">
         <v>265627</v>
       </c>
-      <c r="O17" s="4">
+      <c r="X17" s="4">
         <v>189572</v>
       </c>
-      <c r="P17" s="4">
+      <c r="Y17" s="4">
         <v>123420</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="5">
+        <v>135000</v>
+      </c>
+      <c r="C18" s="5">
+        <v>135000</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5">
+        <v>140000</v>
+      </c>
+      <c r="H18" s="5">
+        <v>140000</v>
+      </c>
+      <c r="I18" s="5">
         <v>160000</v>
       </c>
-      <c r="C18" s="5">
+      <c r="J18" s="5"/>
+      <c r="K18" s="5">
+        <v>160000</v>
+      </c>
+      <c r="L18" s="5">
         <v>170000</v>
       </c>
-      <c r="D18" s="5">
+      <c r="M18" s="5">
         <v>140000</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5">
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="5">
         <v>143730</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="5">
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="5">
         <v>146500</v>
       </c>
-      <c r="K18" s="4">
+      <c r="T18" s="4">
         <v>150000</v>
       </c>
-      <c r="L18" s="4">
+      <c r="U18" s="4">
         <v>150000</v>
       </c>
-      <c r="M18" s="4">
+      <c r="V18" s="4">
         <v>150000</v>
       </c>
-      <c r="N18" s="4">
+      <c r="W18" s="4">
         <v>145000</v>
       </c>
-      <c r="O18" s="4">
+      <c r="X18" s="4">
         <v>145000</v>
       </c>
-      <c r="P18" s="4">
+      <c r="Y18" s="4">
         <v>145000</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="5">
+        <f>45000+25000</f>
+        <v>70000</v>
+      </c>
+      <c r="C19" s="5">
+        <v>96200</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5">
+        <v>179750</v>
+      </c>
+      <c r="H19" s="5">
+        <v>199088</v>
+      </c>
+      <c r="I19" s="5">
+        <v>149300</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5">
         <v>141150</v>
       </c>
-      <c r="C19" s="5">
+      <c r="L19" s="5">
         <v>104950</v>
       </c>
-      <c r="D19" s="5">
+      <c r="M19" s="5">
         <v>103850</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5">
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="5">
         <v>145000</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="5">
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="5">
         <v>150000</v>
       </c>
-      <c r="K19" s="4">
+      <c r="T19" s="4">
         <v>156700</v>
       </c>
-      <c r="L19" s="4">
+      <c r="U19" s="4">
         <v>161500</v>
       </c>
-      <c r="M19" s="4">
+      <c r="V19" s="4">
         <v>245200</v>
       </c>
-      <c r="N19" s="4">
+      <c r="W19" s="4">
         <v>238600</v>
       </c>
-      <c r="O19" s="4">
+      <c r="X19" s="4">
         <v>369010</v>
       </c>
-      <c r="P19" s="4">
+      <c r="Y19" s="4">
         <v>396310</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5">
+        <v>124500</v>
+      </c>
+      <c r="H20" s="5">
+        <v>117603</v>
+      </c>
+      <c r="I20" s="5">
+        <v>107200</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5">
         <v>121739</v>
       </c>
-      <c r="C20" s="5">
+      <c r="L20" s="5">
         <v>77750</v>
       </c>
-      <c r="D20" s="5">
+      <c r="M20" s="5">
         <v>76750</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="5">
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="5">
         <v>463980</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="5">
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="5">
         <v>104511</v>
       </c>
-      <c r="K20" s="4">
+      <c r="T20" s="4">
         <v>112140</v>
       </c>
-      <c r="L20" s="4">
+      <c r="U20" s="4">
         <v>132606</v>
       </c>
-      <c r="M20" s="4">
+      <c r="V20" s="4">
         <v>94660</v>
       </c>
-      <c r="N20" s="4">
+      <c r="W20" s="4">
         <v>77500</v>
       </c>
-      <c r="O20" s="4">
+      <c r="X20" s="4">
         <v>0</v>
       </c>
-      <c r="P20" s="4">
+      <c r="Y20" s="4">
         <v>335650</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="5">
+        <v>63360</v>
+      </c>
+      <c r="C21" s="5">
+        <v>63780</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5">
+        <v>69700</v>
+      </c>
+      <c r="H21" s="5">
+        <v>70200</v>
+      </c>
+      <c r="I21" s="5">
+        <v>68040</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5">
         <v>63840</v>
       </c>
-      <c r="C21" s="5">
+      <c r="L21" s="5">
         <v>54170</v>
       </c>
-      <c r="D21" s="5">
+      <c r="M21" s="5">
         <v>45500</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="5">
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="5">
         <v>320410</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="5">
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="5">
         <v>76250</v>
       </c>
-      <c r="K21" s="4">
+      <c r="T21" s="4">
         <v>70000</v>
       </c>
-      <c r="L21" s="4">
+      <c r="U21" s="4">
         <v>70000</v>
       </c>
-      <c r="M21" s="4">
+      <c r="V21" s="4">
         <v>70000</v>
       </c>
-      <c r="N21" s="4">
+      <c r="W21" s="4">
         <v>70000</v>
       </c>
-      <c r="O21" s="4">
+      <c r="X21" s="4">
         <v>70000</v>
       </c>
-      <c r="P21" s="4">
+      <c r="Y21" s="4">
         <v>50000</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="5">
+        <f>39640+25738</f>
+        <v>65378</v>
+      </c>
+      <c r="C22" s="5">
+        <v>71331</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5">
+        <v>42164</v>
+      </c>
+      <c r="H22" s="5">
+        <v>55105</v>
+      </c>
+      <c r="I22" s="5">
+        <v>65204</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5">
         <v>51847</v>
       </c>
-      <c r="C22" s="5">
+      <c r="L22" s="5">
         <v>10762</v>
       </c>
-      <c r="D22" s="5">
+      <c r="M22" s="5">
         <v>28893</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5">
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="5">
         <v>46313</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="5">
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="5">
         <v>21742</v>
       </c>
-      <c r="K22" s="4">
+      <c r="T22" s="4">
         <v>52335</v>
       </c>
-      <c r="L22" s="4">
+      <c r="U22" s="4">
         <v>119436</v>
       </c>
-      <c r="M22" s="4">
+      <c r="V22" s="4">
         <v>25472</v>
       </c>
-      <c r="N22" s="4">
+      <c r="W22" s="4">
         <v>101317</v>
       </c>
-      <c r="O22" s="4">
+      <c r="X22" s="4">
         <v>91192</v>
       </c>
-      <c r="P22" s="4">
+      <c r="Y22" s="4">
         <v>63520</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="5">
+        <v>122293</v>
+      </c>
+      <c r="C23" s="5">
+        <v>69000</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5">
+        <v>38158</v>
+      </c>
+      <c r="H23" s="5">
+        <v>67268</v>
+      </c>
+      <c r="I23" s="5">
+        <v>63766</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5">
         <v>76017</v>
       </c>
-      <c r="C23" s="5">
+      <c r="L23" s="5">
         <v>17818</v>
       </c>
-      <c r="D23" s="5">
+      <c r="M23" s="5">
         <v>4189</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5">
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="5">
         <v>23755</v>
       </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="5">
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="5">
         <v>94269</v>
       </c>
-      <c r="K23" s="4">
+      <c r="T23" s="4">
         <v>21397</v>
       </c>
-      <c r="L23" s="4">
+      <c r="U23" s="4">
         <v>46264</v>
       </c>
-      <c r="M23" s="4">
+      <c r="V23" s="4">
         <v>30316</v>
       </c>
-      <c r="N23" s="4">
+      <c r="W23" s="4">
         <v>14092</v>
       </c>
-      <c r="O23" s="4">
+      <c r="X23" s="4">
         <v>28500</v>
       </c>
-      <c r="P23" s="4">
+      <c r="Y23" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="5">
+        <v>73850</v>
+      </c>
+      <c r="C24" s="5">
+        <v>68800</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5">
+        <v>46292</v>
+      </c>
+      <c r="H24" s="5">
+        <v>41112</v>
+      </c>
+      <c r="I24" s="5">
+        <v>43527</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5">
         <v>39272</v>
       </c>
-      <c r="C24" s="5">
+      <c r="L24" s="5">
         <v>52830</v>
       </c>
-      <c r="D24" s="5">
+      <c r="M24" s="5">
         <v>25057</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="5">
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="5">
         <v>64800</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="5">
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="5">
         <v>70000</v>
       </c>
-      <c r="K24" s="4">
+      <c r="T24" s="4">
         <v>40898</v>
       </c>
-      <c r="L24" s="4">
+      <c r="U24" s="4">
         <v>49784</v>
       </c>
-      <c r="M24" s="4">
+      <c r="V24" s="4">
         <v>90341</v>
       </c>
-      <c r="N24" s="4">
+      <c r="W24" s="4">
         <v>109836</v>
       </c>
-      <c r="O24" s="4">
+      <c r="X24" s="4">
         <v>33804</v>
       </c>
-      <c r="P24" s="4">
+      <c r="Y24" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="5">
+        <v>24000</v>
+      </c>
+      <c r="C25" s="5">
+        <v>31000</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5">
+        <v>9000</v>
+      </c>
+      <c r="H25" s="5">
+        <v>21000</v>
+      </c>
+      <c r="I25" s="5">
+        <v>36000</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5">
         <v>27000</v>
       </c>
-      <c r="C25" s="5">
+      <c r="L25" s="5">
         <v>18000</v>
       </c>
-      <c r="D25" s="5">
+      <c r="M25" s="5">
         <v>29000</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5">
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="5">
         <v>25000</v>
       </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="5">
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="5">
         <v>35000</v>
       </c>
-      <c r="K25" s="4">
+      <c r="T25" s="4">
         <v>30000</v>
       </c>
-      <c r="L25" s="4">
+      <c r="U25" s="4">
         <v>40000</v>
       </c>
-      <c r="M25" s="4">
+      <c r="V25" s="4">
         <v>50000</v>
       </c>
-      <c r="N25" s="4">
+      <c r="W25" s="4">
         <v>55000</v>
       </c>
-      <c r="O25" s="4">
+      <c r="X25" s="4">
         <v>30000</v>
       </c>
-      <c r="P25" s="4">
+      <c r="Y25" s="4">
         <v>50000</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -7322,616 +9969,1086 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
-      <c r="O26" s="4">
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4">
         <v>499030</v>
       </c>
-      <c r="P26" s="4">
+      <c r="Y26" s="4">
         <v>389186</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5">
-        <v>103324</v>
-      </c>
-      <c r="C27" s="5">
-        <v>60000</v>
-      </c>
-      <c r="D27" s="5">
-        <v>100000</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1140735</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="5">
-        <v>100000</v>
-      </c>
+      <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="5">
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5">
+        <v>103324</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5">
+        <v>103324</v>
+      </c>
+      <c r="L28" s="5">
+        <v>60000</v>
+      </c>
+      <c r="M28" s="5">
+        <v>100000</v>
+      </c>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="5">
+        <v>100000</v>
+      </c>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="5">
         <v>400000</v>
       </c>
-      <c r="K27" s="4">
+      <c r="T28" s="4">
         <v>600410</v>
       </c>
-      <c r="L27" s="4">
+      <c r="U28" s="4">
         <v>925364</v>
       </c>
-      <c r="M27" s="4">
+      <c r="V28" s="4">
         <v>0</v>
       </c>
-      <c r="N27" s="4">
+      <c r="W28" s="4">
         <v>200000</v>
       </c>
-      <c r="O27" s="4">
+      <c r="X28" s="4">
         <v>200000</v>
       </c>
-      <c r="P27" s="4">
+      <c r="Y28" s="4">
         <v>200000</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="4">
-        <f t="shared" ref="B28:I28" si="2">SUM(B13:B27)</f>
+      <c r="B29" s="4">
+        <f t="shared" ref="B29:C29" si="2">SUM(B13:B28)</f>
+        <v>3690373</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" si="2"/>
+        <v>2513647</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4">
+        <f t="shared" ref="G29:I29" si="3">SUM(G13:G28)</f>
+        <v>2421363</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="3"/>
+        <v>2879113</v>
+      </c>
+      <c r="I29" s="4">
+        <f t="shared" si="3"/>
+        <v>2913442</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4">
+        <f t="shared" ref="K29:R29" si="4">SUM(K13:K28)</f>
         <v>2886345</v>
       </c>
-      <c r="C28" s="4">
-        <f t="shared" si="2"/>
+      <c r="L29" s="4">
+        <f t="shared" si="4"/>
         <v>2855803</v>
       </c>
-      <c r="D28" s="4">
-        <f t="shared" si="2"/>
+      <c r="M29" s="4">
+        <f t="shared" si="4"/>
         <v>2725242</v>
       </c>
-      <c r="E28" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="4">
-        <f t="shared" si="2"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4">
+        <f t="shared" si="4"/>
         <v>3537964</v>
       </c>
-      <c r="H28" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="4">
-        <f t="shared" ref="J28:P28" si="3">SUM(J13:J27)</f>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4">
+        <f t="shared" ref="S29:Y29" si="5">SUM(S13:S28)</f>
         <v>4144656</v>
       </c>
-      <c r="K28" s="4">
-        <f t="shared" si="3"/>
+      <c r="T29" s="4">
+        <f t="shared" si="5"/>
         <v>4087890</v>
       </c>
-      <c r="L28" s="4">
-        <f t="shared" si="3"/>
+      <c r="U29" s="4">
+        <f t="shared" si="5"/>
         <v>4968588</v>
       </c>
-      <c r="M28" s="4">
-        <f t="shared" si="3"/>
+      <c r="V29" s="4">
+        <f t="shared" si="5"/>
         <v>3867886</v>
       </c>
-      <c r="N28" s="4">
-        <f t="shared" si="3"/>
+      <c r="W29" s="4">
+        <f t="shared" si="5"/>
         <v>3965093</v>
       </c>
-      <c r="O28" s="4">
-        <f t="shared" si="3"/>
+      <c r="X29" s="4">
+        <f t="shared" si="5"/>
         <v>4162065</v>
       </c>
-      <c r="P28" s="4">
-        <f t="shared" si="3"/>
+      <c r="Y29" s="4">
+        <f t="shared" si="5"/>
         <v>2667086</v>
       </c>
-      <c r="S28" t="s">
+      <c r="AB29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="4">
-        <f t="shared" ref="B29:I29" si="4">B8-B28</f>
+      <c r="B30" s="4">
+        <f t="shared" ref="B30:C30" si="6">B8-B29</f>
+        <v>1639568</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" si="6"/>
+        <v>2049217</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4">
+        <f t="shared" ref="G30:I30" si="7">G8-G29</f>
+        <v>3375355</v>
+      </c>
+      <c r="H30" s="4">
+        <f>H8-H29</f>
+        <v>3559805</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" si="7"/>
+        <v>3630553</v>
+      </c>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4">
+        <f t="shared" ref="K30:R30" si="8">K8-K29</f>
         <v>3917057</v>
       </c>
-      <c r="C29" s="4">
-        <f t="shared" si="4"/>
+      <c r="L30" s="4">
+        <f t="shared" si="8"/>
         <v>4193942</v>
       </c>
-      <c r="D29" s="4">
-        <f t="shared" si="4"/>
+      <c r="M30" s="4">
+        <f t="shared" si="8"/>
         <v>4823924</v>
       </c>
-      <c r="E29" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="4">
-        <f t="shared" si="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4">
+        <f t="shared" si="8"/>
         <v>4847004</v>
       </c>
-      <c r="H29" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="4">
-        <f t="shared" ref="J29:P29" si="5">J8-J28</f>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4">
+        <f t="shared" ref="S30:Y30" si="9">S8-S29</f>
         <v>4360234</v>
       </c>
-      <c r="K29" s="4">
-        <f t="shared" si="5"/>
+      <c r="T30" s="4">
+        <f t="shared" si="9"/>
         <v>4060058</v>
       </c>
-      <c r="L29" s="4">
-        <f t="shared" si="5"/>
+      <c r="U30" s="4">
+        <f>U8-U29</f>
         <v>3165120</v>
       </c>
-      <c r="M29" s="4">
-        <f t="shared" si="5"/>
+      <c r="V30" s="4">
+        <f>V8-V29</f>
         <v>3165656</v>
       </c>
-      <c r="N29" s="4">
-        <f t="shared" si="5"/>
+      <c r="W30" s="4">
+        <f t="shared" si="9"/>
         <v>2923424</v>
       </c>
-      <c r="O29" s="4">
-        <f t="shared" si="5"/>
+      <c r="X30" s="4">
+        <f t="shared" si="9"/>
         <v>3254925</v>
       </c>
-      <c r="P29" s="4">
-        <f t="shared" si="5"/>
+      <c r="Y30" s="4">
+        <f t="shared" si="9"/>
         <v>3450047</v>
       </c>
-      <c r="S29" t="s">
+      <c r="AB30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J31" s="8"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="B32" s="1">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="B33" s="10">
+        <v>1997</v>
+      </c>
+      <c r="C33" s="10">
+        <v>1998</v>
+      </c>
+      <c r="D33" s="10">
+        <v>1999</v>
+      </c>
+      <c r="E33" s="10">
+        <v>2000</v>
+      </c>
+      <c r="F33" s="10">
+        <v>2001</v>
+      </c>
+      <c r="G33" s="10">
+        <v>2002</v>
+      </c>
+      <c r="H33" s="10">
+        <v>2003</v>
+      </c>
+      <c r="I33" s="10">
+        <v>2004</v>
+      </c>
+      <c r="J33" s="10">
+        <v>2005</v>
+      </c>
+      <c r="K33" s="10">
         <v>2006</v>
       </c>
-      <c r="C32" s="1">
+      <c r="L33" s="10">
         <v>2007</v>
       </c>
-      <c r="D32" s="1">
+      <c r="M33" s="10">
         <v>2008</v>
       </c>
-      <c r="E32" s="1">
+      <c r="N33" s="10">
         <v>2009</v>
       </c>
-      <c r="F32" s="1">
+      <c r="O33" s="10">
         <v>2010</v>
       </c>
-      <c r="G32" s="1">
+      <c r="P33" s="10">
         <v>2011</v>
       </c>
-      <c r="H32" s="1">
+      <c r="Q33" s="10">
         <v>2012</v>
       </c>
-      <c r="I32" s="1">
+      <c r="R33" s="10">
         <v>2013</v>
       </c>
-      <c r="J32" s="1">
+      <c r="S33" s="10">
         <v>2014</v>
       </c>
-      <c r="K32" s="1">
+      <c r="T33" s="10">
         <v>2015</v>
       </c>
-      <c r="L32" s="1">
+      <c r="U33" s="10">
         <v>2016</v>
       </c>
-      <c r="M32" s="1">
+      <c r="V33" s="10">
         <v>2017</v>
       </c>
-      <c r="N32" s="1">
+      <c r="W33" s="10">
         <v>2018</v>
       </c>
-      <c r="O32" s="1">
+      <c r="X33" s="10">
         <v>2019</v>
       </c>
-      <c r="P32" s="1">
+      <c r="Y33" s="10">
         <v>2020</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B33" s="4" t="s">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" t="s">
+        <v>67</v>
+      </c>
+      <c r="I34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J34" t="s">
+        <v>69</v>
+      </c>
+      <c r="K34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="L34" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="M34" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="N34" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="O34" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="P34" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="Q34" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="R34" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="S34" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="T34" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="L33" s="4" t="s">
+      <c r="U34" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="V34" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N33" s="4" t="s">
+      <c r="W34" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="O33" s="4" t="s">
+      <c r="X34" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="P33" s="4" t="s">
+      <c r="Y34" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B35" s="3">
+        <v>96640</v>
+      </c>
+      <c r="C35" s="3">
+        <v>106400</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3">
+        <v>108780</v>
+      </c>
+      <c r="H35" s="3">
+        <v>108780</v>
+      </c>
+      <c r="I35" s="3">
+        <v>105820</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="5">
         <v>108410</v>
       </c>
-      <c r="C34" s="5">
+      <c r="L35" s="5">
         <v>106930</v>
       </c>
-      <c r="D34" s="5">
+      <c r="M35" s="5">
         <v>113590</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="5">
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="5">
         <v>108460</v>
       </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="5">
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="5">
         <v>103700</v>
       </c>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4">
+      <c r="T35" s="4"/>
+      <c r="U35" s="4">
+        <v>104040</v>
+      </c>
+      <c r="V35" s="4">
         <v>105740</v>
       </c>
-      <c r="N34" s="4">
+      <c r="W35" s="4">
         <v>0</v>
       </c>
-      <c r="O34" s="5">
+      <c r="X35" s="5">
+        <v>112850</v>
+      </c>
+      <c r="Y35" s="5">
         <v>0</v>
       </c>
-      <c r="P34" s="5">
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="3">
+        <v>360800</v>
+      </c>
+      <c r="C36" s="3">
+        <v>344000</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3">
+        <v>274000</v>
+      </c>
+      <c r="H36" s="3">
+        <v>300000</v>
+      </c>
+      <c r="I36" s="3">
+        <v>306000</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="5">
+        <v>320000</v>
+      </c>
+      <c r="L36" s="5">
+        <v>332000</v>
+      </c>
+      <c r="M36" s="5">
+        <v>342000</v>
+      </c>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="5">
+        <v>254000</v>
+      </c>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="5">
+        <v>266000</v>
+      </c>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4">
+        <v>318000</v>
+      </c>
+      <c r="V36" s="4">
+        <v>346000</v>
+      </c>
+      <c r="W36" s="4">
+        <v>316000</v>
+      </c>
+      <c r="X36" s="5">
+        <v>308000</v>
+      </c>
+      <c r="Y36" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="5">
-        <v>320000</v>
-      </c>
-      <c r="C35" s="5">
-        <v>332000</v>
-      </c>
-      <c r="D35" s="5">
-        <v>342000</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="5">
-        <v>254000</v>
-      </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="5">
-        <v>266000</v>
-      </c>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4">
-        <v>346000</v>
-      </c>
-      <c r="N35" s="4">
-        <v>316000</v>
-      </c>
-      <c r="O35" s="5">
-        <v>316000</v>
-      </c>
-      <c r="P35" s="5">
-        <v>316000</v>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="3">
+        <v>158346</v>
+      </c>
+      <c r="C37" s="3">
+        <v>146091</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3">
+        <v>115630</v>
+      </c>
+      <c r="H37" s="3">
+        <v>104998</v>
+      </c>
+      <c r="I37" s="3">
+        <v>99204</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="5">
+        <v>92017</v>
+      </c>
+      <c r="L37" s="5">
+        <v>87337</v>
+      </c>
+      <c r="M37" s="5">
+        <v>78430</v>
+      </c>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="5">
+        <v>49564</v>
+      </c>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="5">
+        <v>90720</v>
+      </c>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4">
+        <v>81448</v>
+      </c>
+      <c r="V37" s="4">
+        <v>73228</v>
+      </c>
+      <c r="W37" s="4">
+        <v>72565</v>
+      </c>
+      <c r="X37" s="5">
+        <v>35360</v>
+      </c>
+      <c r="Y37" s="5">
+        <v>72565</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="5">
-        <v>92017</v>
-      </c>
-      <c r="C36" s="5">
-        <v>87337</v>
-      </c>
-      <c r="D36" s="5">
-        <v>78430</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="5">
-        <v>49564</v>
-      </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="5">
-        <v>90720</v>
-      </c>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4">
-        <v>13228</v>
-      </c>
-      <c r="N36" s="4">
-        <v>72565</v>
-      </c>
-      <c r="O36" s="5">
-        <v>72565</v>
-      </c>
-      <c r="P36" s="5">
-        <v>72565</v>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2500</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2500</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H38" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I38" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="5">
+        <v>2500</v>
+      </c>
+      <c r="L38" s="5">
+        <v>2500</v>
+      </c>
+      <c r="M38" s="5">
+        <v>2500</v>
+      </c>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="5">
+        <v>2500</v>
+      </c>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="5">
+        <v>2500</v>
+      </c>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4">
+        <v>2500</v>
+      </c>
+      <c r="V38" s="4">
+        <v>2500</v>
+      </c>
+      <c r="W38" s="4">
+        <v>0</v>
+      </c>
+      <c r="X38" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="5">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="5">
-        <v>2500</v>
-      </c>
-      <c r="C37" s="5">
-        <v>2500</v>
-      </c>
-      <c r="D37" s="5">
-        <v>2500</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="5">
-        <v>2500</v>
-      </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="5">
-        <v>2500</v>
-      </c>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4">
-        <v>2500</v>
-      </c>
-      <c r="N37" s="4">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="3">
+        <v>434877</v>
+      </c>
+      <c r="C39" s="3">
+        <v>414384</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3">
+        <v>431000</v>
+      </c>
+      <c r="H39" s="3">
+        <v>512207</v>
+      </c>
+      <c r="I39" s="3">
+        <v>575277</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="5">
+        <v>520200</v>
+      </c>
+      <c r="L39" s="5">
+        <v>658622</v>
+      </c>
+      <c r="M39" s="5">
+        <v>712892</v>
+      </c>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="5">
+        <v>940305</v>
+      </c>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="5">
+        <v>1454763</v>
+      </c>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4">
+        <v>1569669</v>
+      </c>
+      <c r="V39" s="4">
+        <v>1444644</v>
+      </c>
+      <c r="W39" s="4">
+        <v>1481531</v>
+      </c>
+      <c r="X39" s="5">
+        <v>1604760</v>
+      </c>
+      <c r="Y39" s="5">
+        <v>1481531</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="3">
+        <v>5415</v>
+      </c>
+      <c r="C40" s="3">
+        <v>4785</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3">
+        <v>4740</v>
+      </c>
+      <c r="H40" s="3">
+        <v>4855</v>
+      </c>
+      <c r="I40" s="3">
+        <v>4475</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="5">
+        <v>4010</v>
+      </c>
+      <c r="L40" s="5">
+        <v>3545</v>
+      </c>
+      <c r="M40" s="5">
+        <v>3775</v>
+      </c>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="5">
+        <v>53460</v>
+      </c>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="5">
+        <v>3250</v>
+      </c>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4">
         <v>0</v>
       </c>
-      <c r="O37" s="5">
+      <c r="V40" s="4">
         <v>0</v>
       </c>
-      <c r="P37" s="5">
+      <c r="W40" s="4">
         <v>0</v>
       </c>
+      <c r="X40" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="5">
-        <v>520200</v>
-      </c>
-      <c r="C38" s="5">
-        <v>658622</v>
-      </c>
-      <c r="D38" s="5">
-        <v>712892</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="5">
-        <v>940305</v>
-      </c>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="5">
-        <v>1454763</v>
-      </c>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4">
-        <v>1444644</v>
-      </c>
-      <c r="N38" s="4">
-        <v>1481531</v>
-      </c>
-      <c r="O38" s="5">
-        <v>1481531</v>
-      </c>
-      <c r="P38" s="5">
-        <v>1481531</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="5">
-        <v>4010</v>
-      </c>
-      <c r="C39" s="5">
-        <v>3545</v>
-      </c>
-      <c r="D39" s="5">
-        <v>3775</v>
-      </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="5">
-        <v>53460</v>
-      </c>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="5">
-        <v>3250</v>
-      </c>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4">
-        <v>0</v>
-      </c>
-      <c r="N39" s="4">
-        <v>0</v>
-      </c>
-      <c r="O39" s="5">
-        <v>0</v>
-      </c>
-      <c r="P39" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="5">
         <v>23600</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="5">
-        <v>0</v>
-      </c>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="5">
-        <v>0</v>
-      </c>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4">
-        <v>0</v>
-      </c>
-      <c r="N40" s="4">
-        <v>0</v>
-      </c>
-      <c r="O40" s="5">
-        <v>0</v>
-      </c>
-      <c r="P40" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="5">
-        <v>43324</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
+      <c r="P41" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="5">
+        <v>0</v>
+      </c>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4">
+        <v>36400</v>
+      </c>
+      <c r="V41" s="4">
+        <v>0</v>
+      </c>
+      <c r="W41" s="4">
+        <v>0</v>
+      </c>
+      <c r="X41" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="M43" s="7">
-        <v>6666</v>
-      </c>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3">
+        <v>43324</v>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="K42" s="5">
+        <v>43324</v>
+      </c>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4">
+        <v>10000</v>
+      </c>
+      <c r="Y43" s="4"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4">
+        <v>4000</v>
+      </c>
+      <c r="Y44" s="4"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3">
+        <v>45500</v>
+      </c>
+      <c r="H45" s="3">
+        <v>34000</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="B46" s="8">
+        <f>SUM(B35:B42)</f>
+        <v>1058578</v>
+      </c>
+      <c r="C46" s="8">
+        <f>SUM(C35:C42)</f>
+        <v>1018160</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8">
+        <f>SUM(G35:G45)</f>
+        <v>982150</v>
+      </c>
+      <c r="H46" s="8">
+        <f>SUM(H35:H45)</f>
+        <v>1067340</v>
+      </c>
+      <c r="I46" s="8">
+        <f t="shared" ref="I46" si="10">SUM(I35:I42)</f>
+        <v>1136600</v>
+      </c>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8">
+        <f>SUM(K35:K42)</f>
+        <v>1114061</v>
+      </c>
+      <c r="L46" s="8">
+        <f t="shared" ref="L46:W46" si="11">SUM(L35:L44)</f>
+        <v>1190934</v>
+      </c>
+      <c r="M46" s="8">
+        <f t="shared" si="11"/>
+        <v>1253187</v>
+      </c>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8">
+        <f t="shared" si="11"/>
+        <v>1408289</v>
+      </c>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8">
+        <f t="shared" si="11"/>
+        <v>1920933</v>
+      </c>
+      <c r="T46" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U46" s="8">
+        <f t="shared" si="11"/>
+        <v>2112057</v>
+      </c>
+      <c r="V46" s="8">
+        <f t="shared" si="11"/>
+        <v>1972112</v>
+      </c>
+      <c r="W46" s="8">
+        <f t="shared" si="11"/>
+        <v>1870096</v>
+      </c>
+      <c r="X46" s="8">
+        <f>SUM(X35:X44)</f>
+        <v>2074970</v>
+      </c>
+      <c r="Y46" s="8">
+        <f>SUM(Y35:Y44)</f>
+        <v>1554096</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="V47" s="7"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" spans="22:22" x14ac:dyDescent="0.45">
+      <c r="V49" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="K2:P7">
-    <cfRule type="dataBar" priority="6">
+  <conditionalFormatting sqref="T2:Y7">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7944,8 +11061,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:P25 K13:N13 P13 K27:P27 K26:N26 P26">
-    <cfRule type="dataBar" priority="8">
+  <conditionalFormatting sqref="T14:Y25 T13:W13 Y13 T28:Y28 T26:W27 Y26:Y27">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7958,8 +11075,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:P27">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="T13:Y28">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7972,8 +11089,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:P27">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="K13:Y28">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7986,8 +11103,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:P7">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="K2:Y7">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8000,8 +11117,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34:P41 M43">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="K35:Y45 V47">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8012,6 +11129,101 @@
           <x14:id>{434C68F9-828C-4828-A200-1D439DF169C6}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L46:Y46">
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="notEqual">
+      <formula>L$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:J5">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{238A5E9A-BF39-49B5-814D-5B1AD6C3FA3B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:J6">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{73363599-3BB4-49EF-9E86-B88DDFD83B24}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:Y7">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3099796D-1251-4C0A-B13C-42C933C380B6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:J28">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{77E38026-0F6F-49CC-AE70-05C43B2A7733}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:Y28">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6E2C54BA-C1F0-4597-B3AB-C540C6B1AD04}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:K46">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="notEqual">
+      <formula>B$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30:X30 B30 G30:H30">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="notEqual">
+      <formula>C$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30:J30">
+    <cfRule type="cellIs" dxfId="1" priority="38" operator="notEqual">
+      <formula>K$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30:F30">
+    <cfRule type="cellIs" dxfId="0" priority="47" operator="notEqual">
+      <formula>G$2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8029,7 +11241,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K2:P7</xm:sqref>
+          <xm:sqref>T2:Y7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{350CABA5-DAA7-4BFD-B423-2FDBEDC3BEC9}">
@@ -8040,7 +11252,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K14:P25 K13:N13 P13 K27:P27 K26:N26 P26</xm:sqref>
+          <xm:sqref>T14:Y25 T13:W13 Y13 T28:Y28 T26:W27 Y26:Y27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{31311FF5-8F87-4931-A11A-85F36212F46A}">
@@ -8051,7 +11263,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K13:P27</xm:sqref>
+          <xm:sqref>T13:Y28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6A9DDD2E-AC6A-470D-920B-E2D3C5168BE6}">
@@ -8062,7 +11274,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B13:P27</xm:sqref>
+          <xm:sqref>K13:Y28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{66625425-7737-424F-A055-ADDBB5EBC84A}">
@@ -8073,7 +11285,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B2:P7</xm:sqref>
+          <xm:sqref>K2:Y7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{434C68F9-828C-4828-A200-1D439DF169C6}">
@@ -8084,7 +11296,62 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B34:P41 M43</xm:sqref>
+          <xm:sqref>K35:Y45 V47</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{238A5E9A-BF39-49B5-814D-5B1AD6C3FA3B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:J5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{73363599-3BB4-49EF-9E86-B88DDFD83B24}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B6:J6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3099796D-1251-4C0A-B13C-42C933C380B6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:Y7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{77E38026-0F6F-49CC-AE70-05C43B2A7733}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B13:J28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6E2C54BA-C1F0-4597-B3AB-C540C6B1AD04}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B13:Y28</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8104,5 +11371,6 @@
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/tmp/6年分会計比較.xlsx
+++ b/tmp/6年分会計比較.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\github\neighborhood\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FFB2E3-D1FC-43DA-993B-7F28F8011159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8C79C1-8D3F-4072-AB65-F10AD4D334AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{91722BC7-0123-42BB-87D5-AEEE062398CE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91722BC7-0123-42BB-87D5-AEEE062398CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -774,7 +774,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -825,6 +825,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -834,7 +847,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -868,12 +881,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -979,9 +1006,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -998,15 +1024,29 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$T$12:$Y$12</c:f>
@@ -1060,6 +1100,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-68D1-4DA1-9A4D-C08E5B6D35A9}"/>
@@ -1081,15 +1122,29 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$T$12:$Y$12</c:f>
@@ -1143,6 +1198,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-68D1-4DA1-9A4D-C08E5B6D35A9}"/>
@@ -1164,15 +1220,29 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$T$12:$Y$12</c:f>
@@ -1226,6 +1296,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-68D1-4DA1-9A4D-C08E5B6D35A9}"/>
@@ -1247,15 +1318,29 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$T$12:$Y$12</c:f>
@@ -1309,6 +1394,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-68D1-4DA1-9A4D-C08E5B6D35A9}"/>
@@ -1330,15 +1416,29 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$T$12:$Y$12</c:f>
@@ -1392,6 +1492,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-68D1-4DA1-9A4D-C08E5B6D35A9}"/>
@@ -1413,15 +1514,29 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$T$12:$Y$12</c:f>
@@ -1475,6 +1590,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-68D1-4DA1-9A4D-C08E5B6D35A9}"/>
@@ -1496,17 +1612,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$T$12:$Y$12</c:f>
@@ -1560,6 +1694,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-68D1-4DA1-9A4D-C08E5B6D35A9}"/>
@@ -1581,17 +1716,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$T$12:$Y$12</c:f>
@@ -1645,6 +1798,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-68D1-4DA1-9A4D-C08E5B6D35A9}"/>
@@ -1666,17 +1820,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$T$12:$Y$12</c:f>
@@ -1730,6 +1902,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-68D1-4DA1-9A4D-C08E5B6D35A9}"/>
@@ -1751,17 +1924,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$T$12:$Y$12</c:f>
@@ -1815,6 +2006,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-68D1-4DA1-9A4D-C08E5B6D35A9}"/>
@@ -1836,17 +2028,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$T$12:$Y$12</c:f>
@@ -1900,6 +2110,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-68D1-4DA1-9A4D-C08E5B6D35A9}"/>
@@ -1921,17 +2132,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$T$12:$Y$12</c:f>
@@ -1985,6 +2214,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-68D1-4DA1-9A4D-C08E5B6D35A9}"/>
@@ -2006,18 +2236,38 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$T$12:$Y$12</c:f>
@@ -2071,6 +2321,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-68D1-4DA1-9A4D-C08E5B6D35A9}"/>
@@ -2082,7 +2333,7 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$26</c:f>
+              <c:f>Sheet1!$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2092,18 +2343,38 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$T$12:$Y$12</c:f>
@@ -2132,7 +2403,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$26:$Y$26</c:f>
+              <c:f>Sheet1!$T$27:$Y$27</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2145,6 +2416,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-68D1-4DA1-9A4D-C08E5B6D35A9}"/>
@@ -2156,7 +2428,7 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$28</c:f>
+              <c:f>Sheet1!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2166,18 +2438,38 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$T$12:$Y$12</c:f>
@@ -2206,7 +2498,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$28:$Y$28</c:f>
+              <c:f>Sheet1!$T$26:$Y$26</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2231,6 +2523,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000E-68D1-4DA1-9A4D-C08E5B6D35A9}"/>
@@ -2245,11 +2538,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="100"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="1684807119"/>
         <c:axId val="1684810863"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="1684807119"/>
         <c:scaling>
@@ -3378,8 +3671,14 @@
                 <c:pt idx="11">
                   <c:v>4202612</c:v>
                 </c:pt>
+                <c:pt idx="13" formatCode="#,##0">
+                  <c:v>4383876</c:v>
+                </c:pt>
                 <c:pt idx="14">
                   <c:v>4889601</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="#,##0">
+                  <c:v>4689442</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>4639367</c:v>
@@ -3560,8 +3859,14 @@
                 <c:pt idx="11">
                   <c:v>1492000</c:v>
                 </c:pt>
+                <c:pt idx="13" formatCode="#,##0">
+                  <c:v>1516800</c:v>
+                </c:pt>
                 <c:pt idx="14">
                   <c:v>1497200</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="#,##0">
+                  <c:v>1476800</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1480400</c:v>
@@ -3742,8 +4047,14 @@
                 <c:pt idx="11">
                   <c:v>1253187</c:v>
                 </c:pt>
+                <c:pt idx="13" formatCode="#,##0">
+                  <c:v>1365485</c:v>
+                </c:pt>
                 <c:pt idx="14">
                   <c:v>1408289</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="#,##0">
+                  <c:v>1617086</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1920933</c:v>
@@ -3924,8 +4235,14 @@
                 <c:pt idx="11">
                   <c:v>427000</c:v>
                 </c:pt>
+                <c:pt idx="13" formatCode="#,##0">
+                  <c:v>377000</c:v>
+                </c:pt>
                 <c:pt idx="14">
                   <c:v>432000</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="#,##0">
+                  <c:v>373000</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>348000</c:v>
@@ -4106,8 +4423,14 @@
                 <c:pt idx="11">
                   <c:v>174367</c:v>
                 </c:pt>
+                <c:pt idx="13" formatCode="#,##0">
+                  <c:v>92059</c:v>
+                </c:pt>
                 <c:pt idx="14">
                   <c:v>157878</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="#,##0">
+                  <c:v>829</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>116190</c:v>
@@ -4447,8 +4770,14 @@
                 <c:pt idx="11">
                   <c:v>7549166</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>7735220</c:v>
+                </c:pt>
                 <c:pt idx="14">
                   <c:v>8384968</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8157157</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>8504890</c:v>
@@ -8017,15 +8346,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
+      <xdr:colOff>401002</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>18097</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>74295</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8516,8 +8845,8 @@
   <dimension ref="A1:AG49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N9" sqref="N9"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8633,12 +8962,16 @@
         <v>4202612</v>
       </c>
       <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="O2" s="11">
+        <v>4383876</v>
+      </c>
       <c r="P2" s="5">
         <v>4889601</v>
       </c>
       <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
+      <c r="R2" s="11">
+        <v>4689442</v>
+      </c>
       <c r="S2" s="5">
         <v>4639367</v>
       </c>
@@ -8694,12 +9027,16 @@
         <v>1492000</v>
       </c>
       <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
+      <c r="O3" s="11">
+        <v>1516800</v>
+      </c>
       <c r="P3" s="5">
         <v>1497200</v>
       </c>
       <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="R3" s="11">
+        <v>1476800</v>
+      </c>
       <c r="S3" s="5">
         <v>1480400</v>
       </c>
@@ -8779,12 +9116,16 @@
         <v>1253187</v>
       </c>
       <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+      <c r="O4" s="11">
+        <v>1365485</v>
+      </c>
       <c r="P4" s="5">
         <v>1408289</v>
       </c>
       <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="R4" s="11">
+        <v>1617086</v>
+      </c>
       <c r="S4" s="5">
         <v>1920933</v>
       </c>
@@ -8840,12 +9181,16 @@
         <v>427000</v>
       </c>
       <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+      <c r="O5" s="11">
+        <v>377000</v>
+      </c>
       <c r="P5" s="5">
         <v>432000</v>
       </c>
       <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
+      <c r="R5" s="11">
+        <v>373000</v>
+      </c>
       <c r="S5" s="5">
         <v>348000</v>
       </c>
@@ -8901,12 +9246,16 @@
         <v>174367</v>
       </c>
       <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
+      <c r="O6" s="11">
+        <v>92059</v>
+      </c>
       <c r="P6" s="5">
         <v>157878</v>
       </c>
       <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
+      <c r="R6" s="11">
+        <v>829</v>
+      </c>
       <c r="S6" s="5">
         <v>116190</v>
       </c>
@@ -8992,13 +9341,19 @@
         <v>7549166</v>
       </c>
       <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="O8" s="4">
+        <f t="shared" si="1"/>
+        <v>7735220</v>
+      </c>
       <c r="P8" s="4">
         <f t="shared" si="1"/>
         <v>8384968</v>
       </c>
       <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
+      <c r="R8" s="4">
+        <f t="shared" si="1"/>
+        <v>8157157</v>
+      </c>
       <c r="S8" s="4">
         <f t="shared" si="1"/>
         <v>8504890</v>
@@ -9186,12 +9541,16 @@
         <v>836561</v>
       </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
+      <c r="O13" s="11">
+        <v>1087389</v>
+      </c>
       <c r="P13" s="5">
         <v>923923</v>
       </c>
       <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
+      <c r="R13" s="11">
+        <v>1212960</v>
+      </c>
       <c r="S13" s="5">
         <v>1603503</v>
       </c>
@@ -9247,12 +9606,16 @@
         <v>566167</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
+      <c r="O14" s="11">
+        <v>428155</v>
+      </c>
       <c r="P14" s="5">
         <v>418128</v>
       </c>
       <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
+      <c r="R14" s="11">
+        <v>388333</v>
+      </c>
       <c r="S14" s="5">
         <v>421164</v>
       </c>
@@ -9308,12 +9671,16 @@
         <v>317338</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
+      <c r="O15" s="11">
+        <v>304886</v>
+      </c>
       <c r="P15" s="5">
         <v>447572</v>
       </c>
       <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
+      <c r="R15" s="11">
+        <v>505072</v>
+      </c>
       <c r="S15" s="5">
         <v>439192</v>
       </c>
@@ -9369,12 +9736,16 @@
         <v>251937</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
+      <c r="O16" s="11">
+        <v>254426</v>
+      </c>
       <c r="P16" s="5">
         <v>215353</v>
       </c>
       <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
+      <c r="R16" s="12">
+        <v>263993</v>
+      </c>
       <c r="S16" s="6">
         <v>363437</v>
       </c>
@@ -9430,12 +9801,16 @@
         <v>200000</v>
       </c>
       <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
+      <c r="O17" s="11">
+        <v>211616</v>
+      </c>
       <c r="P17" s="5">
         <v>200000</v>
       </c>
       <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
+      <c r="R17" s="11">
+        <v>157539</v>
+      </c>
       <c r="S17" s="5">
         <v>219088</v>
       </c>
@@ -9491,12 +9866,16 @@
         <v>140000</v>
       </c>
       <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
+      <c r="O18" s="11">
+        <v>87980</v>
+      </c>
       <c r="P18" s="5">
         <v>143730</v>
       </c>
       <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
+      <c r="R18" s="11">
+        <v>160450</v>
+      </c>
       <c r="S18" s="5">
         <v>146500</v>
       </c>
@@ -9553,12 +9932,16 @@
         <v>103850</v>
       </c>
       <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
+      <c r="O19" s="11">
+        <v>145000</v>
+      </c>
       <c r="P19" s="5">
         <v>145000</v>
       </c>
       <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
+      <c r="R19" s="11">
+        <v>150000</v>
+      </c>
       <c r="S19" s="5">
         <v>150000</v>
       </c>
@@ -9614,12 +9997,16 @@
         <v>76750</v>
       </c>
       <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
+      <c r="O20" s="11">
+        <v>6298</v>
+      </c>
       <c r="P20" s="5">
         <v>463980</v>
       </c>
       <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
+      <c r="R20" s="11">
+        <v>165899</v>
+      </c>
       <c r="S20" s="5">
         <v>104511</v>
       </c>
@@ -9675,12 +10062,16 @@
         <v>45500</v>
       </c>
       <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
+      <c r="O21" s="11">
+        <v>97920</v>
+      </c>
       <c r="P21" s="5">
         <v>320410</v>
       </c>
       <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
+      <c r="R21" s="11">
+        <v>78000</v>
+      </c>
       <c r="S21" s="5">
         <v>76250</v>
       </c>
@@ -9737,12 +10128,16 @@
         <v>28893</v>
       </c>
       <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
+      <c r="O22" s="11">
+        <v>26730</v>
+      </c>
       <c r="P22" s="5">
         <v>46313</v>
       </c>
       <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
+      <c r="R22" s="13">
+        <v>13730</v>
+      </c>
       <c r="S22" s="5">
         <v>21742</v>
       </c>
@@ -9798,12 +10193,16 @@
         <v>4189</v>
       </c>
       <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
+      <c r="O23" s="11">
+        <v>13219</v>
+      </c>
       <c r="P23" s="5">
         <v>23755</v>
       </c>
       <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
+      <c r="R23" s="11">
+        <v>36814</v>
+      </c>
       <c r="S23" s="5">
         <v>94269</v>
       </c>
@@ -9859,12 +10258,16 @@
         <v>25057</v>
       </c>
       <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
+      <c r="O24" s="11">
+        <v>57000</v>
+      </c>
       <c r="P24" s="5">
         <v>64800</v>
       </c>
       <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
+      <c r="R24" s="11">
+        <v>70000</v>
+      </c>
       <c r="S24" s="5">
         <v>70000</v>
       </c>
@@ -9920,12 +10323,16 @@
         <v>29000</v>
       </c>
       <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
+      <c r="O25" s="11">
+        <v>25000</v>
+      </c>
       <c r="P25" s="5">
         <v>25000</v>
       </c>
       <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
+      <c r="R25" s="11">
+        <v>65000</v>
+      </c>
       <c r="S25" s="5">
         <v>35000</v>
       </c>
@@ -9950,47 +10357,71 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4">
+        <v>26</v>
+      </c>
+      <c r="B26" s="5">
         <v>0</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="5">
         <v>0</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5">
+        <v>103324</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5">
+        <v>103324</v>
+      </c>
+      <c r="L26" s="5">
+        <v>60000</v>
+      </c>
+      <c r="M26" s="5">
+        <v>100000</v>
+      </c>
       <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
+      <c r="O26" s="4">
+        <v>100000</v>
+      </c>
+      <c r="P26" s="5">
+        <v>100000</v>
+      </c>
       <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
+      <c r="R26" s="11">
+        <v>250000</v>
+      </c>
+      <c r="S26" s="5">
+        <v>400000</v>
+      </c>
+      <c r="T26" s="4">
+        <v>600410</v>
+      </c>
+      <c r="U26" s="4">
+        <v>925364</v>
+      </c>
+      <c r="V26" s="4">
+        <v>0</v>
+      </c>
+      <c r="W26" s="4">
+        <v>200000</v>
+      </c>
       <c r="X26" s="4">
-        <v>499030</v>
+        <v>200000</v>
       </c>
       <c r="Y26" s="4">
-        <v>389186</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>1140735</v>
+        <v>0</v>
       </c>
       <c r="C27" s="4">
         <v>0</v>
@@ -10006,149 +10437,135 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
+      <c r="O27" s="11"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
+      <c r="R27" s="11"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
+      <c r="X27" s="4">
+        <v>499030</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>389186</v>
+      </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="5">
+        <v>52</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1140735</v>
+      </c>
+      <c r="C28" s="4">
         <v>0</v>
       </c>
-      <c r="C28" s="5">
-        <v>0</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5">
-        <v>103324</v>
-      </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5">
-        <v>103324</v>
-      </c>
-      <c r="L28" s="5">
-        <v>60000</v>
-      </c>
-      <c r="M28" s="5">
-        <v>100000</v>
-      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
-      <c r="P28" s="5">
-        <v>100000</v>
-      </c>
+      <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="5">
-        <v>400000</v>
-      </c>
-      <c r="T28" s="4">
-        <v>600410</v>
-      </c>
-      <c r="U28" s="4">
-        <v>925364</v>
-      </c>
-      <c r="V28" s="4">
-        <v>0</v>
-      </c>
-      <c r="W28" s="4">
-        <v>200000</v>
-      </c>
-      <c r="X28" s="4">
-        <v>200000</v>
-      </c>
-      <c r="Y28" s="4">
-        <v>200000</v>
-      </c>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <f t="shared" ref="B29:C29" si="2">SUM(B13:B28)</f>
+        <f>SUM(B13:B28)</f>
         <v>3690373</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(C13:C28)</f>
         <v>2513647</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4">
-        <f t="shared" ref="G29:I29" si="3">SUM(G13:G28)</f>
+        <f>SUM(G13:G28)</f>
         <v>2421363</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(H13:H28)</f>
         <v>2879113</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(I13:I28)</f>
         <v>2913442</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4">
-        <f t="shared" ref="K29:R29" si="4">SUM(K13:K28)</f>
+        <f>SUM(K13:K28)</f>
         <v>2886345</v>
       </c>
       <c r="L29" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(L13:L28)</f>
         <v>2855803</v>
       </c>
       <c r="M29" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(M13:M28)</f>
         <v>2725242</v>
       </c>
       <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
+      <c r="O29" s="4">
+        <f>SUM(O13:O28)</f>
+        <v>2845619</v>
+      </c>
       <c r="P29" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(P13:P28)</f>
         <v>3537964</v>
       </c>
       <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
+      <c r="R29" s="4">
+        <f>SUM(R13:R28)</f>
+        <v>3517790</v>
+      </c>
       <c r="S29" s="4">
-        <f t="shared" ref="S29:Y29" si="5">SUM(S13:S28)</f>
+        <f>SUM(S13:S28)</f>
         <v>4144656</v>
       </c>
       <c r="T29" s="4">
-        <f t="shared" si="5"/>
+        <f>SUM(T13:T28)</f>
         <v>4087890</v>
       </c>
       <c r="U29" s="4">
-        <f t="shared" si="5"/>
+        <f>SUM(U13:U28)</f>
         <v>4968588</v>
       </c>
       <c r="V29" s="4">
-        <f t="shared" si="5"/>
+        <f>SUM(V13:V28)</f>
         <v>3867886</v>
       </c>
       <c r="W29" s="4">
-        <f t="shared" si="5"/>
+        <f>SUM(W13:W28)</f>
         <v>3965093</v>
       </c>
       <c r="X29" s="4">
-        <f t="shared" si="5"/>
+        <f>SUM(X13:X28)</f>
         <v>4162065</v>
       </c>
       <c r="Y29" s="4">
-        <f t="shared" si="5"/>
+        <f>SUM(Y13:Y28)</f>
         <v>2667086</v>
       </c>
       <c r="AB29" t="s">
@@ -10160,18 +10577,18 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <f t="shared" ref="B30:C30" si="6">B8-B29</f>
+        <f>B8-B29</f>
         <v>1639568</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" si="6"/>
+        <f>C8-C29</f>
         <v>2049217</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4">
-        <f t="shared" ref="G30:I30" si="7">G8-G29</f>
+        <f>G8-G29</f>
         <v>3375355</v>
       </c>
       <c r="H30" s="4">
@@ -10179,36 +10596,42 @@
         <v>3559805</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="7"/>
+        <f>I8-I29</f>
         <v>3630553</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4">
-        <f t="shared" ref="K30:R30" si="8">K8-K29</f>
+        <f>K8-K29</f>
         <v>3917057</v>
       </c>
       <c r="L30" s="4">
-        <f t="shared" si="8"/>
+        <f>L8-L29</f>
         <v>4193942</v>
       </c>
       <c r="M30" s="4">
-        <f t="shared" si="8"/>
+        <f>M8-M29</f>
         <v>4823924</v>
       </c>
       <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
+      <c r="O30" s="4">
+        <f>O8-O29</f>
+        <v>4889601</v>
+      </c>
       <c r="P30" s="4">
-        <f t="shared" si="8"/>
+        <f>P8-P29</f>
         <v>4847004</v>
       </c>
       <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
+      <c r="R30" s="4">
+        <f>R8-R29</f>
+        <v>4639367</v>
+      </c>
       <c r="S30" s="4">
-        <f t="shared" ref="S30:Y30" si="9">S8-S29</f>
+        <f>S8-S29</f>
         <v>4360234</v>
       </c>
       <c r="T30" s="4">
-        <f t="shared" si="9"/>
+        <f>T8-T29</f>
         <v>4060058</v>
       </c>
       <c r="U30" s="4">
@@ -10220,15 +10643,15 @@
         <v>3165656</v>
       </c>
       <c r="W30" s="4">
-        <f t="shared" si="9"/>
+        <f>W8-W29</f>
         <v>2923424</v>
       </c>
       <c r="X30" s="4">
-        <f t="shared" si="9"/>
+        <f>X8-X29</f>
         <v>3254925</v>
       </c>
       <c r="Y30" s="4">
-        <f t="shared" si="9"/>
+        <f>Y8-Y29</f>
         <v>3450047</v>
       </c>
       <c r="AB30" t="s">
@@ -10436,25 +10859,25 @@
       <c r="A35" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="4">
         <v>96640</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="4">
         <v>106400</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3">
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4">
         <v>108780</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="4">
         <v>108780</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="4">
         <v>105820</v>
       </c>
-      <c r="J35" s="3"/>
+      <c r="J35" s="4"/>
       <c r="K35" s="5">
         <v>108410</v>
       </c>
@@ -10465,12 +10888,16 @@
         <v>113590</v>
       </c>
       <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
+      <c r="O35" s="5">
+        <v>116920</v>
+      </c>
       <c r="P35" s="5">
         <v>108460</v>
       </c>
       <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
+      <c r="R35" s="5">
+        <v>106080</v>
+      </c>
       <c r="S35" s="5">
         <v>103700</v>
       </c>
@@ -10495,25 +10922,25 @@
       <c r="A36" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="4">
         <v>360800</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="4">
         <v>344000</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3">
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4">
         <v>274000</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="4">
         <v>300000</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="4">
         <v>306000</v>
       </c>
-      <c r="J36" s="3"/>
+      <c r="J36" s="4"/>
       <c r="K36" s="5">
         <v>320000</v>
       </c>
@@ -10524,12 +10951,16 @@
         <v>342000</v>
       </c>
       <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
+      <c r="O36" s="5">
+        <v>246000</v>
+      </c>
       <c r="P36" s="5">
         <v>254000</v>
       </c>
       <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
+      <c r="R36" s="5">
+        <v>262000</v>
+      </c>
       <c r="S36" s="5">
         <v>266000</v>
       </c>
@@ -10554,25 +10985,25 @@
       <c r="A37" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="4">
         <v>158346</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="4">
         <v>146091</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3">
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4">
         <v>115630</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="4">
         <v>104998</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="4">
         <v>99204</v>
       </c>
-      <c r="J37" s="3"/>
+      <c r="J37" s="4"/>
       <c r="K37" s="5">
         <v>92017</v>
       </c>
@@ -10583,12 +11014,16 @@
         <v>78430</v>
       </c>
       <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
+      <c r="O37" s="5">
+        <v>97937</v>
+      </c>
       <c r="P37" s="5">
         <v>49564</v>
       </c>
       <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
+      <c r="R37" s="5">
+        <v>90626</v>
+      </c>
       <c r="S37" s="5">
         <v>90720</v>
       </c>
@@ -10613,25 +11048,25 @@
       <c r="A38" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="4">
         <v>2500</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="4">
         <v>2500</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4">
         <v>2500</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="4">
         <v>2500</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="4">
         <v>2500</v>
       </c>
-      <c r="J38" s="3"/>
+      <c r="J38" s="4"/>
       <c r="K38" s="5">
         <v>2500</v>
       </c>
@@ -10642,12 +11077,16 @@
         <v>2500</v>
       </c>
       <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
+      <c r="O38" s="5">
+        <v>2500</v>
+      </c>
       <c r="P38" s="5">
         <v>2500</v>
       </c>
       <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
+      <c r="R38" s="5">
+        <v>2500</v>
+      </c>
       <c r="S38" s="5">
         <v>2500</v>
       </c>
@@ -10672,25 +11111,25 @@
       <c r="A39" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="4">
         <v>434877</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="4">
         <v>414384</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3">
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4">
         <v>431000</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="4">
         <v>512207</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="4">
         <v>575277</v>
       </c>
-      <c r="J39" s="3"/>
+      <c r="J39" s="4"/>
       <c r="K39" s="5">
         <v>520200</v>
       </c>
@@ -10701,12 +11140,16 @@
         <v>712892</v>
       </c>
       <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
+      <c r="O39" s="5">
+        <v>898798</v>
+      </c>
       <c r="P39" s="5">
         <v>940305</v>
       </c>
       <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
+      <c r="R39" s="5">
+        <v>1155880</v>
+      </c>
       <c r="S39" s="5">
         <v>1454763</v>
       </c>
@@ -10731,25 +11174,25 @@
       <c r="A40" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="4">
         <v>5415</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="4">
         <v>4785</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3">
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4">
         <v>4740</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="4">
         <v>4855</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="4">
         <v>4475</v>
       </c>
-      <c r="J40" s="3"/>
+      <c r="J40" s="4"/>
       <c r="K40" s="5">
         <v>4010</v>
       </c>
@@ -10760,12 +11203,14 @@
         <v>3775</v>
       </c>
       <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
+      <c r="O40" s="5">
+        <v>3330</v>
+      </c>
       <c r="P40" s="5">
         <v>53460</v>
       </c>
       <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
+      <c r="R40" s="5"/>
       <c r="S40" s="5">
         <v>3250</v>
       </c>
@@ -10790,15 +11235,15 @@
       <c r="A41" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
       <c r="K41" s="5">
         <v>23600</v>
       </c>
@@ -10810,7 +11255,9 @@
         <v>0</v>
       </c>
       <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
+      <c r="R41" s="5">
+        <v>0</v>
+      </c>
       <c r="S41" s="5">
         <v>0</v>
       </c>
@@ -10835,17 +11282,17 @@
       <c r="A42" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4">
         <v>43324</v>
       </c>
-      <c r="J42" s="3"/>
+      <c r="J42" s="4"/>
       <c r="K42" s="5">
         <v>43324</v>
       </c>
@@ -10868,15 +11315,15 @@
       <c r="A43" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
@@ -10899,15 +11346,15 @@
       <c r="A44" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
@@ -10930,19 +11377,19 @@
       <c r="A45" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4">
         <v>45500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="4">
         <v>34000</v>
       </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
@@ -10980,7 +11427,7 @@
         <v>1067340</v>
       </c>
       <c r="I46" s="8">
-        <f t="shared" ref="I46" si="10">SUM(I35:I42)</f>
+        <f t="shared" ref="I46" si="2">SUM(I35:I42)</f>
         <v>1136600</v>
       </c>
       <c r="J46" s="8"/>
@@ -10989,39 +11436,45 @@
         <v>1114061</v>
       </c>
       <c r="L46" s="8">
-        <f t="shared" ref="L46:W46" si="11">SUM(L35:L44)</f>
+        <f t="shared" ref="L46:W46" si="3">SUM(L35:L44)</f>
         <v>1190934</v>
       </c>
       <c r="M46" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>1253187</v>
       </c>
       <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
+      <c r="O46" s="8">
+        <f t="shared" si="3"/>
+        <v>1365485</v>
+      </c>
       <c r="P46" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>1408289</v>
       </c>
       <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
+      <c r="R46" s="8">
+        <f t="shared" si="3"/>
+        <v>1617086</v>
+      </c>
       <c r="S46" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>1920933</v>
       </c>
       <c r="T46" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U46" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>2112057</v>
       </c>
       <c r="V46" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>1972112</v>
       </c>
       <c r="W46" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>1870096</v>
       </c>
       <c r="X46" s="8">
@@ -11048,7 +11501,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="T2:Y7">
-    <cfRule type="dataBar" priority="19">
+    <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11061,8 +11514,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T14:Y25 T13:W13 Y13 T28:Y28 T26:W27 Y26:Y27">
-    <cfRule type="dataBar" priority="21">
+  <conditionalFormatting sqref="T14:Y26 T13:W13 Y13 T27:W28 Y27:Y28">
+    <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11075,8 +11528,103 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K2:Y7">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{66625425-7737-424F-A055-ADDBB5EBC84A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35:Y45 V47">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{434C68F9-828C-4828-A200-1D439DF169C6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L46:Y46">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="notEqual">
+      <formula>L$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:J5">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{238A5E9A-BF39-49B5-814D-5B1AD6C3FA3B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:J6">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{73363599-3BB4-49EF-9E86-B88DDFD83B24}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:Y7">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3099796D-1251-4C0A-B13C-42C933C380B6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:K46">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="notEqual">
+      <formula>B$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30 G30:H30 K30:X30">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="notEqual">
+      <formula>C$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30:J30">
+    <cfRule type="cellIs" dxfId="6" priority="39" operator="notEqual">
+      <formula>K$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30:F30">
+    <cfRule type="cellIs" dxfId="5" priority="48" operator="notEqual">
+      <formula>G$2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="T13:Y28">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="54">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11090,7 +11638,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:Y28">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="56">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11103,83 +11651,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:Y7">
-    <cfRule type="dataBar" priority="15">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{66625425-7737-424F-A055-ADDBB5EBC84A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K35:Y45 V47">
-    <cfRule type="dataBar" priority="14">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{434C68F9-828C-4828-A200-1D439DF169C6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L46:Y46">
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="notEqual">
-      <formula>L$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:J5">
-    <cfRule type="dataBar" priority="9">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{238A5E9A-BF39-49B5-814D-5B1AD6C3FA3B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:J6">
-    <cfRule type="dataBar" priority="7">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{73363599-3BB4-49EF-9E86-B88DDFD83B24}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:Y7">
-    <cfRule type="dataBar" priority="6">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3099796D-1251-4C0A-B13C-42C933C380B6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B13:J28">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="58">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11193,7 +11666,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:Y28">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="60">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11206,24 +11679,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46:K46">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="notEqual">
-      <formula>B$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K30:X30 B30 G30:H30">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="notEqual">
-      <formula>C$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30:J30">
-    <cfRule type="cellIs" dxfId="1" priority="38" operator="notEqual">
-      <formula>K$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30:F30">
-    <cfRule type="cellIs" dxfId="0" priority="47" operator="notEqual">
-      <formula>G$2</formula>
+  <conditionalFormatting sqref="B35:Y45">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A84BA16D-E339-4EBD-81A3-B9F6238E857C}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11252,29 +11719,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>T14:Y25 T13:W13 Y13 T28:Y28 T26:W27 Y26:Y27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{31311FF5-8F87-4931-A11A-85F36212F46A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>T13:Y28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6A9DDD2E-AC6A-470D-920B-E2D3C5168BE6}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>K13:Y28</xm:sqref>
+          <xm:sqref>T14:Y26 T13:W13 Y13 T27:W28 Y27:Y28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{66625425-7737-424F-A055-ADDBB5EBC84A}">
@@ -11332,6 +11777,28 @@
           <xm:sqref>B2:Y7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{31311FF5-8F87-4931-A11A-85F36212F46A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>T13:Y28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6A9DDD2E-AC6A-470D-920B-E2D3C5168BE6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K13:Y28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{77E38026-0F6F-49CC-AE70-05C43B2A7733}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
@@ -11352,6 +11819,17 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>B13:Y28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A84BA16D-E339-4EBD-81A3-B9F6238E857C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B35:Y45</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/tmp/6年分会計比較.xlsx
+++ b/tmp/6年分会計比較.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\github\neighborhood\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB06251-7B29-4C7C-9FC8-8A7D27FEAD25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032602CD-C781-4AFE-9FF5-657343AC2842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{91722BC7-0123-42BB-87D5-AEEE062398CE}"/>
+    <workbookView xWindow="-28680" yWindow="270" windowWidth="28515" windowHeight="14730" xr2:uid="{91722BC7-0123-42BB-87D5-AEEE062398CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -901,32 +901,7 @@
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -980,578 +955,13 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.14205595240303362"/>
-          <c:y val="9.4655125338528406E-2"/>
-          <c:w val="0.82745946936758141"/>
-          <c:h val="0.58462596654676058"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>前年度繰越金</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$T$1:$Y$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>平成27年</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>平成28年</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>平成29年</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>平成30年</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>令和元年</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>令和2年</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$T$2:$Y$2</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4360234</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4060058</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3165656</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3168532</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2923424</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3254925</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FE66-4523-8D78-35A7108F21A9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>町会費</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$T$1:$Y$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>平成27年</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>平成28年</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>平成29年</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>平成30年</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>令和元年</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>令和2年</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$T$3:$Y$3</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1460000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1456400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1430800</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1420800</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1402800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1396800</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FE66-4523-8D78-35A7108F21A9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>補助金</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$T$1:$Y$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>平成27年</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>平成28年</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>平成29年</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>平成30年</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>令和元年</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>令和2年</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$T$4:$Y$4</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1805546</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2112057</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1972112</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1870096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2074970</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1408199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FE66-4523-8D78-35A7108F21A9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>寄付金</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$T$1:$Y$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>平成27年</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>平成28年</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>平成29年</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>平成30年</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>令和元年</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>令和2年</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$T$5:$Y$5</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>408000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>383000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>342000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>293000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>321000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-FE66-4523-8D78-35A7108F21A9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>雑収入</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$T$1:$Y$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>平成27年</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>平成28年</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>平成29年</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>平成30年</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>令和元年</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>令和2年</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$T$6:$Y$6</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>114168</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>122193</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>122974</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>136089</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>343297</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>57209</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-FE66-4523-8D78-35A7108F21A9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>手許現金</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$T$1:$Y$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>平成27年</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>平成28年</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>平成29年</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>平成30年</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>令和元年</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>令和2年</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$T$7:$Y$7</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="4">
-                  <c:v>351499</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-FE66-4523-8D78-35A7108F21A9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="145158800"/>
-        <c:axId val="145157504"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="145158800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1563,170 +973,13 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>収入</a:t>
+            </a:r>
           </a:p>
-        </c:txPr>
-        <c:crossAx val="145157504"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="145157504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="145158800"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3332,7 +2585,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3347,12 +2600,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>補助金内訳</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.60419794016975947"/>
-          <c:y val="0"/>
+          <c:x val="0.27715390922046701"/>
+          <c:y val="3.5063984870028577E-3"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3386,10 +2664,19 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.2691769311129366E-2"/>
+          <c:y val="0.1522828862905341"/>
+          <c:w val="0.60893958316098751"/>
+          <c:h val="0.55012826600192566"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3406,15 +2693,29 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$11:$Y$11</c:f>
@@ -3555,6 +2856,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-550C-46AE-B78C-81CA9B6C1F28}"/>
@@ -3576,15 +2878,29 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$11:$Y$11</c:f>
@@ -3725,6 +3041,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-550C-46AE-B78C-81CA9B6C1F28}"/>
@@ -3746,15 +3063,29 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$11:$Y$11</c:f>
@@ -3895,6 +3226,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-550C-46AE-B78C-81CA9B6C1F28}"/>
@@ -3916,15 +3248,29 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$11:$Y$11</c:f>
@@ -4065,6 +3411,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-550C-46AE-B78C-81CA9B6C1F28}"/>
@@ -4086,15 +3433,29 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$11:$Y$11</c:f>
@@ -4235,6 +3596,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-550C-46AE-B78C-81CA9B6C1F28}"/>
@@ -4256,15 +3618,29 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$11:$Y$11</c:f>
@@ -4402,6 +3778,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-550C-46AE-B78C-81CA9B6C1F28}"/>
@@ -4423,17 +3800,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$11:$Y$11</c:f>
@@ -4550,6 +3945,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-550C-46AE-B78C-81CA9B6C1F28}"/>
@@ -4571,17 +3967,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$11:$Y$11</c:f>
@@ -4677,6 +4091,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-550C-46AE-B78C-81CA9B6C1F28}"/>
@@ -4698,17 +4113,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$11:$Y$11</c:f>
@@ -4801,6 +4234,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-550C-46AE-B78C-81CA9B6C1F28}"/>
@@ -4822,17 +4256,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$11:$Y$11</c:f>
@@ -4925,6 +4377,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-550C-46AE-B78C-81CA9B6C1F28}"/>
@@ -4939,11 +4392,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="1089261535"/>
         <c:axId val="1089253215"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="1089261535"/>
         <c:scaling>
@@ -5061,6 +4514,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.74954461583061038"/>
+          <c:y val="9.1403249630723826E-2"/>
+          <c:w val="0.23507832835530174"/>
+          <c:h val="0.60003368351302477"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5134,7 +4597,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -5149,6 +4612,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>支出</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5188,7 +4676,7 @@
           <c:x val="8.251738146695145E-2"/>
           <c:y val="8.8736133395476618E-2"/>
           <c:w val="0.64381562018721916"/>
-          <c:h val="0.68689825174560792"/>
+          <c:h val="0.7097734541615065"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -8511,47 +7999,510 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9056,1015 +9007,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10571,23 +9514,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>512173</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171724</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>236605</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>93201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>390253</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>402180</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="グラフ 4">
+        <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{114DE0D3-A164-43A4-9E94-5A83BEDE7E77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E62381-12E1-4216-930A-0FF58A61042C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10607,23 +9550,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>585220</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>20811</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>151039</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>82140</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>188099</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1">
+        <xdr:cNvPr id="6" name="グラフ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E62381-12E1-4216-930A-0FF58A61042C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2CD722B-58D7-40FA-9573-EC6EBACCB9DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10643,52 +9586,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>396512</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>600346</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>182608</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>276497</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>215809</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="グラフ 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2CD722B-58D7-40FA-9573-EC6EBACCB9DF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>343171</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>131173</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>231321</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>106952</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>488496</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10707,7 +9614,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11070,9 +9977,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A9483D-CB65-47B5-B1B3-0EF3888FC64F}">
   <dimension ref="A1:AG49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -11285,11 +10192,11 @@
         <v>1396800</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AG3" si="0">T3/4800</f>
+        <f>T3/4800</f>
         <v>304.16666666666669</v>
       </c>
       <c r="AC3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AB3:AG3" si="0">U3/4800</f>
         <v>303.41666666666669</v>
       </c>
       <c r="AD3">
@@ -13663,95 +12570,95 @@
       </c>
       <c r="B45" s="14"/>
       <c r="C45" s="14">
-        <f>C2-B44</f>
+        <f t="shared" ref="C45:Y45" si="6">C2-B44</f>
         <v>0</v>
       </c>
       <c r="D45" s="14">
-        <f>D2-C44</f>
+        <f t="shared" si="6"/>
         <v>-2049217</v>
       </c>
       <c r="E45" s="14">
-        <f>E2-D44</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F45" s="14">
-        <f>F2-E44</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G45" s="14">
-        <f>G2-F44</f>
+        <f t="shared" si="6"/>
         <v>2832723</v>
       </c>
       <c r="H45" s="14">
-        <f>H2-G44</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I45" s="14">
-        <f>I2-H44</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J45" s="14">
-        <f>J2-I44</f>
+        <f t="shared" si="6"/>
         <v>-3630553</v>
       </c>
       <c r="K45" s="14">
-        <f>K2-J44</f>
+        <f t="shared" si="6"/>
         <v>3700842</v>
       </c>
       <c r="L45" s="14">
-        <f>L2-K44</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M45" s="14">
-        <f>M2-L44</f>
+        <f t="shared" si="6"/>
         <v>8670</v>
       </c>
       <c r="N45" s="14">
-        <f>N2-M44</f>
+        <f t="shared" si="6"/>
         <v>-4823924</v>
       </c>
       <c r="O45" s="14">
-        <f>O2-N44</f>
+        <f t="shared" si="6"/>
         <v>4383876</v>
       </c>
       <c r="P45" s="14">
-        <f>P2-O44</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q45" s="14">
-        <f>Q2-P44</f>
+        <f t="shared" si="6"/>
         <v>-4847004</v>
       </c>
       <c r="R45" s="14">
-        <f>R2-Q44</f>
+        <f t="shared" si="6"/>
         <v>4689442</v>
       </c>
       <c r="S45" s="14">
-        <f>S2-R44</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T45" s="14">
-        <f>T2-S44</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U45" s="14">
-        <f>U2-T44</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V45" s="14">
-        <f>V2-U44</f>
+        <f t="shared" si="6"/>
         <v>536</v>
       </c>
       <c r="W45" s="14">
-        <f>W2-V44</f>
+        <f t="shared" si="6"/>
         <v>2876</v>
       </c>
       <c r="X45" s="14">
-        <f>X2-W44</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y45" s="14">
-        <f>Y2-X44</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>

--- a/tmp/6年分会計比較.xlsx
+++ b/tmp/6年分会計比較.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\github\neighborhood\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032602CD-C781-4AFE-9FF5-657343AC2842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE070F8-685A-4A03-9692-567C4FE1EC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28680" yWindow="270" windowWidth="28515" windowHeight="14730" xr2:uid="{91722BC7-0123-42BB-87D5-AEEE062398CE}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{91722BC7-0123-42BB-87D5-AEEE062398CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2115,216 +2115,6 @@
         <c:axId val="757613840"/>
         <c:axId val="757622160"/>
       </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>小計</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$1:$Y$1</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>平成９年</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>平成１０年</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>平成１１年</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>平成１２年</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>平成１３年</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>平成14年</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>平成15年</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>平成16年</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>平成17年</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>平成18年</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>平成19年</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>平成20年</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>平成21年</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>平成22年</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>平成23年</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>平成24年</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>平成25年</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>平成26年</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>平成27年</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>平成28年</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>平成29年</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>平成30年</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>令和元年</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>令和2年</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$8:$Y$8</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>5329941</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4562864</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5796718</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6438918</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6543995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6803402</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7049745</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7549166</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7735220</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8384968</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8157157</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8504890</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8147948</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8133708</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7033542</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6888517</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7416990</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6117133</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-C09C-4102-8D88-E3AEEC55458D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="757629232"/>
-        <c:axId val="757625072"/>
-      </c:lineChart>
       <c:catAx>
         <c:axId val="757613840"/>
         <c:scaling>
@@ -2432,66 +2222,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="757625072"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="757629232"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="757629232"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="757625072"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -9977,9 +9707,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A9483D-CB65-47B5-B1B3-0EF3888FC64F}">
   <dimension ref="A1:AG49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z23" sqref="Z23"/>
+      <selection pane="topRight" activeCell="Z24" sqref="Z24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -10196,7 +9926,7 @@
         <v>304.16666666666669</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AB3:AG3" si="0">U3/4800</f>
+        <f t="shared" ref="AC3:AG3" si="0">U3/4800</f>
         <v>303.41666666666669</v>
       </c>
       <c r="AD3">
